--- a/JupyterNotebooks/AvgHW/Alpha4F-HW10.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha4F-HW10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,25 +82,25 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
     <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
   </si>
   <si>
     <t>[4, 0, 0]</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,25 +626,25 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>1.011091215900098</v>
+      </c>
+      <c r="D3">
         <v>1.034511613642781</v>
       </c>
-      <c r="D3">
+      <c r="E3">
+        <v>0.9994888363863</v>
+      </c>
+      <c r="F3">
+        <v>0.971636974082732</v>
+      </c>
+      <c r="G3">
+        <v>1.034511613642781</v>
+      </c>
+      <c r="H3">
         <v>0.9601794332936798</v>
       </c>
-      <c r="E3">
+      <c r="I3">
         <v>1.002081300727459</v>
-      </c>
-      <c r="F3">
-        <v>1.034511613642781</v>
-      </c>
-      <c r="G3">
-        <v>0.9994888363863</v>
-      </c>
-      <c r="H3">
-        <v>0.971636974082732</v>
-      </c>
-      <c r="I3">
-        <v>1.011091215900098</v>
       </c>
       <c r="J3">
         <v>0.9601794332936798</v>
@@ -728,7 +680,7 @@
         <v>0.9964982290055083</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,25 +688,25 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <v>1.020575385624311</v>
+      </c>
+      <c r="D4">
         <v>1.068893660203819</v>
       </c>
-      <c r="D4">
+      <c r="E4">
+        <v>0.9982108704390896</v>
+      </c>
+      <c r="F4">
+        <v>0.94543778981016</v>
+      </c>
+      <c r="G4">
+        <v>1.068893660203819</v>
+      </c>
+      <c r="H4">
         <v>0.9211221078750735</v>
       </c>
-      <c r="E4">
+      <c r="I4">
         <v>1.002813121500252</v>
-      </c>
-      <c r="F4">
-        <v>1.068893660203819</v>
-      </c>
-      <c r="G4">
-        <v>0.9982108704390896</v>
-      </c>
-      <c r="H4">
-        <v>0.9454377898101602</v>
-      </c>
-      <c r="I4">
-        <v>1.020575385624311</v>
       </c>
       <c r="J4">
         <v>0.9211221078750735</v>
@@ -772,7 +724,7 @@
         <v>0.9619676146876629</v>
       </c>
       <c r="O4">
-        <v>0.9564576730618287</v>
+        <v>0.9564576730618285</v>
       </c>
       <c r="P4">
         <v>0.9976096298597149</v>
@@ -787,10 +739,10 @@
         <v>1.015430637445741</v>
       </c>
       <c r="T4">
-        <v>0.9928421559087844</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>0.9928421559087842</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,25 +750,25 @@
         <v>3</v>
       </c>
       <c r="C5">
+        <v>1.036488882272237</v>
+      </c>
+      <c r="D5">
         <v>1.120671282223248</v>
       </c>
-      <c r="D5">
+      <c r="E5">
+        <v>1.000065606446719</v>
+      </c>
+      <c r="F5">
+        <v>0.8950675305814249</v>
+      </c>
+      <c r="G5">
+        <v>1.120671282223248</v>
+      </c>
+      <c r="H5">
         <v>0.8499110597775564</v>
       </c>
-      <c r="E5">
+      <c r="I5">
         <v>1.008479131045831</v>
-      </c>
-      <c r="F5">
-        <v>1.120671282223248</v>
-      </c>
-      <c r="G5">
-        <v>1.000065606446719</v>
-      </c>
-      <c r="H5">
-        <v>0.8950675305814247</v>
-      </c>
-      <c r="I5">
-        <v>1.036488882272237</v>
       </c>
       <c r="J5">
         <v>0.8499110597775564</v>
@@ -852,7 +804,7 @@
         <v>0.9851139153911695</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,25 +812,25 @@
         <v>4</v>
       </c>
       <c r="C6">
+        <v>1.058924197648325</v>
+      </c>
+      <c r="D6">
         <v>1.155766345816073</v>
       </c>
-      <c r="D6">
+      <c r="E6">
+        <v>1.047012367000842</v>
+      </c>
+      <c r="F6">
+        <v>0.7980257483313399</v>
+      </c>
+      <c r="G6">
+        <v>1.155766345816073</v>
+      </c>
+      <c r="H6">
         <v>0.8845945138116911</v>
       </c>
-      <c r="E6">
+      <c r="I6">
         <v>0.9848815205336957</v>
-      </c>
-      <c r="F6">
-        <v>1.155766345816073</v>
-      </c>
-      <c r="G6">
-        <v>1.047012367000842</v>
-      </c>
-      <c r="H6">
-        <v>0.7980257483313399</v>
-      </c>
-      <c r="I6">
-        <v>1.058924197648325</v>
       </c>
       <c r="J6">
         <v>0.8845945138116911</v>
@@ -914,7 +866,7 @@
         <v>0.9882007821903277</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,49 +874,49 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9999099039813393</v>
+        <v>1.000121897584107</v>
       </c>
       <c r="D7">
-        <v>0.9988412249302874</v>
+        <v>0.9999099039813395</v>
       </c>
       <c r="E7">
+        <v>1.003889581534907</v>
+      </c>
+      <c r="F7">
+        <v>0.9986490350679214</v>
+      </c>
+      <c r="G7">
+        <v>0.9999099039813395</v>
+      </c>
+      <c r="H7">
+        <v>0.9988412249302886</v>
+      </c>
+      <c r="I7">
         <v>1.001421248751758</v>
       </c>
-      <c r="F7">
-        <v>0.9999099039813393</v>
-      </c>
-      <c r="G7">
-        <v>1.003889581534907</v>
-      </c>
-      <c r="H7">
-        <v>0.9986490350679217</v>
-      </c>
-      <c r="I7">
-        <v>1.000121897584107</v>
-      </c>
       <c r="J7">
-        <v>0.9988412249302874</v>
+        <v>0.9988412249302886</v>
       </c>
       <c r="K7">
-        <v>0.9999099039813393</v>
+        <v>0.9999099039813395</v>
       </c>
       <c r="L7">
         <v>1.001421248751758</v>
       </c>
       <c r="M7">
-        <v>1.000131236841022</v>
+        <v>1.000131236841023</v>
       </c>
       <c r="N7">
-        <v>1.000131236841022</v>
+        <v>1.000131236841023</v>
       </c>
       <c r="O7">
-        <v>0.9996371695833223</v>
+        <v>0.9996371695833225</v>
       </c>
       <c r="P7">
-        <v>1.000057459221128</v>
+        <v>1.000057459221129</v>
       </c>
       <c r="Q7">
-        <v>1.000057459221128</v>
+        <v>1.000057459221129</v>
       </c>
       <c r="R7">
         <v>1.000020570411181</v>
@@ -976,7 +928,7 @@
         <v>1.00047214864172</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,28 +936,28 @@
         <v>6</v>
       </c>
       <c r="C8">
+        <v>1.00046237433144</v>
+      </c>
+      <c r="D8">
         <v>1.001440951225108</v>
       </c>
-      <c r="D8">
-        <v>0.9955058563491982</v>
-      </c>
       <c r="E8">
+        <v>1.0083834978936</v>
+      </c>
+      <c r="F8">
+        <v>0.9965944982674537</v>
+      </c>
+      <c r="G8">
+        <v>1.001440951225108</v>
+      </c>
+      <c r="H8">
+        <v>0.9955058563491976</v>
+      </c>
+      <c r="I8">
         <v>1.003140951042419</v>
       </c>
-      <c r="F8">
-        <v>1.001440951225108</v>
-      </c>
-      <c r="G8">
-        <v>1.008383497893599</v>
-      </c>
-      <c r="H8">
-        <v>0.9965944982674542</v>
-      </c>
-      <c r="I8">
-        <v>1.000462374331439</v>
-      </c>
       <c r="J8">
-        <v>0.9955058563491982</v>
+        <v>0.9955058563491976</v>
       </c>
       <c r="K8">
         <v>1.001440951225108</v>
@@ -1014,13 +966,13 @@
         <v>1.003140951042419</v>
       </c>
       <c r="M8">
-        <v>0.9993234036958085</v>
+        <v>0.9993234036958083</v>
       </c>
       <c r="N8">
-        <v>0.9993234036958085</v>
+        <v>0.9993234036958083</v>
       </c>
       <c r="O8">
-        <v>0.9984137685530238</v>
+        <v>0.9984137685530236</v>
       </c>
       <c r="P8">
         <v>1.000029252872242</v>
@@ -1038,7 +990,7 @@
         <v>1.000921354851536</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,25 +998,25 @@
         <v>7</v>
       </c>
       <c r="C9">
+        <v>1.000191924891336</v>
+      </c>
+      <c r="D9">
         <v>1.005865376723887</v>
       </c>
-      <c r="D9">
+      <c r="E9">
+        <v>1.011250653097286</v>
+      </c>
+      <c r="F9">
+        <v>0.9950331295071324</v>
+      </c>
+      <c r="G9">
+        <v>1.005865376723887</v>
+      </c>
+      <c r="H9">
         <v>0.9943422698701625</v>
       </c>
-      <c r="E9">
+      <c r="I9">
         <v>1.003126901506553</v>
-      </c>
-      <c r="F9">
-        <v>1.005865376723887</v>
-      </c>
-      <c r="G9">
-        <v>1.011250653097286</v>
-      </c>
-      <c r="H9">
-        <v>0.9950331295071324</v>
-      </c>
-      <c r="I9">
-        <v>1.000191924891336</v>
       </c>
       <c r="J9">
         <v>0.9943422698701625</v>
@@ -1076,10 +1028,10 @@
         <v>1.003126901506553</v>
       </c>
       <c r="M9">
-        <v>0.9987345856883576</v>
+        <v>0.9987345856883577</v>
       </c>
       <c r="N9">
-        <v>0.9987345856883576</v>
+        <v>0.9987345856883577</v>
       </c>
       <c r="O9">
         <v>0.9975007669612825</v>
@@ -1100,7 +1052,7 @@
         <v>1.001635042599393</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,25 +1060,25 @@
         <v>8</v>
       </c>
       <c r="C10">
+        <v>1.000539618287998</v>
+      </c>
+      <c r="D10">
         <v>1.008278905715921</v>
       </c>
-      <c r="D10">
+      <c r="E10">
+        <v>1.027171805169818</v>
+      </c>
+      <c r="F10">
+        <v>0.9896947854804907</v>
+      </c>
+      <c r="G10">
+        <v>1.008278905715921</v>
+      </c>
+      <c r="H10">
         <v>0.9878055720177271</v>
       </c>
-      <c r="E10">
-        <v>1.00776719246892</v>
-      </c>
-      <c r="F10">
-        <v>1.008278905715921</v>
-      </c>
-      <c r="G10">
-        <v>1.027171805169818</v>
-      </c>
-      <c r="H10">
-        <v>0.9896947854804907</v>
-      </c>
       <c r="I10">
-        <v>1.000539618287998</v>
+        <v>1.007767192468921</v>
       </c>
       <c r="J10">
         <v>0.9878055720177271</v>
@@ -1135,16 +1087,16 @@
         <v>1.008278905715921</v>
       </c>
       <c r="L10">
-        <v>1.00776719246892</v>
+        <v>1.007767192468921</v>
       </c>
       <c r="M10">
-        <v>0.9977863822433237</v>
+        <v>0.9977863822433239</v>
       </c>
       <c r="N10">
-        <v>0.9977863822433237</v>
+        <v>0.9977863822433239</v>
       </c>
       <c r="O10">
-        <v>0.9950891833223793</v>
+        <v>0.9950891833223796</v>
       </c>
       <c r="P10">
         <v>1.001283890067523</v>
@@ -1159,10 +1111,10 @@
         <v>1.003032643979622</v>
       </c>
       <c r="T10">
-        <v>1.003542979856812</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+        <v>1.003542979856813</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,25 +1122,25 @@
         <v>9</v>
       </c>
       <c r="C11">
+        <v>1.001126026072246</v>
+      </c>
+      <c r="D11">
         <v>1.024230015163155</v>
       </c>
-      <c r="D11">
+      <c r="E11">
+        <v>1.035081084269251</v>
+      </c>
+      <c r="F11">
+        <v>0.9825253643213263</v>
+      </c>
+      <c r="G11">
+        <v>1.024230015163155</v>
+      </c>
+      <c r="H11">
         <v>0.978186473377652</v>
       </c>
-      <c r="E11">
+      <c r="I11">
         <v>1.010849173480775</v>
-      </c>
-      <c r="F11">
-        <v>1.024230015163155</v>
-      </c>
-      <c r="G11">
-        <v>1.035081084269251</v>
-      </c>
-      <c r="H11">
-        <v>0.9825253643213263</v>
-      </c>
-      <c r="I11">
-        <v>1.001126026072246</v>
       </c>
       <c r="J11">
         <v>0.978186473377652</v>
@@ -1224,7 +1176,7 @@
         <v>1.005333022780734</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,28 +1184,28 @@
         <v>10</v>
       </c>
       <c r="C12">
+        <v>1.02020750372489</v>
+      </c>
+      <c r="D12">
         <v>0.8981445638736917</v>
       </c>
-      <c r="D12">
-        <v>0.5683255435415165</v>
-      </c>
       <c r="E12">
+        <v>0.2657095148697233</v>
+      </c>
+      <c r="F12">
+        <v>1.315611249273824</v>
+      </c>
+      <c r="G12">
+        <v>0.8981445638736917</v>
+      </c>
+      <c r="H12">
+        <v>0.5683255435415164</v>
+      </c>
+      <c r="I12">
         <v>1.046837031696213</v>
       </c>
-      <c r="F12">
-        <v>0.8981445638736917</v>
-      </c>
-      <c r="G12">
-        <v>0.2657095148697236</v>
-      </c>
-      <c r="H12">
-        <v>1.315611249273824</v>
-      </c>
-      <c r="I12">
-        <v>1.02020750372489</v>
-      </c>
       <c r="J12">
-        <v>0.5683255435415165</v>
+        <v>0.5683255435415164</v>
       </c>
       <c r="K12">
         <v>0.8981445638736917</v>
@@ -1262,31 +1214,31 @@
         <v>1.046837031696213</v>
       </c>
       <c r="M12">
-        <v>0.8075812876188646</v>
+        <v>0.8075812876188647</v>
       </c>
       <c r="N12">
-        <v>0.8075812876188646</v>
+        <v>0.8075812876188647</v>
       </c>
       <c r="O12">
-        <v>0.9769246081705177</v>
+        <v>0.9769246081705178</v>
       </c>
       <c r="P12">
-        <v>0.8377690463704736</v>
+        <v>0.8377690463704738</v>
       </c>
       <c r="Q12">
-        <v>0.8377690463704736</v>
+        <v>0.8377690463704738</v>
       </c>
       <c r="R12">
-        <v>0.8528629257462781</v>
+        <v>0.8528629257462782</v>
       </c>
       <c r="S12">
-        <v>0.8528629257462781</v>
+        <v>0.8528629257462782</v>
       </c>
       <c r="T12">
         <v>0.8524725678299765</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,34 +1246,34 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.202506630195197</v>
+        <v>0.8812806094175586</v>
       </c>
       <c r="D13">
+        <v>1.202506630195198</v>
+      </c>
+      <c r="E13">
+        <v>1.275007559287129</v>
+      </c>
+      <c r="F13">
+        <v>0.9335685699424507</v>
+      </c>
+      <c r="G13">
+        <v>1.202506630195198</v>
+      </c>
+      <c r="H13">
         <v>1.921457380605314</v>
       </c>
-      <c r="E13">
-        <v>0.7314692390896397</v>
-      </c>
-      <c r="F13">
-        <v>1.202506630195197</v>
-      </c>
-      <c r="G13">
-        <v>1.275007559287129</v>
-      </c>
-      <c r="H13">
-        <v>0.9335685699424509</v>
-      </c>
       <c r="I13">
-        <v>0.8812806094175586</v>
+        <v>0.7314692390896399</v>
       </c>
       <c r="J13">
         <v>1.921457380605314</v>
       </c>
       <c r="K13">
-        <v>1.202506630195197</v>
+        <v>1.202506630195198</v>
       </c>
       <c r="L13">
-        <v>0.7314692390896397</v>
+        <v>0.7314692390896399</v>
       </c>
       <c r="M13">
         <v>1.326463309847477</v>
@@ -1333,10 +1285,10 @@
         <v>1.195498396545801</v>
       </c>
       <c r="P13">
-        <v>1.28514441663005</v>
+        <v>1.285144416630051</v>
       </c>
       <c r="Q13">
-        <v>1.28514441663005</v>
+        <v>1.285144416630051</v>
       </c>
       <c r="R13">
         <v>1.264484970021337</v>
@@ -1348,7 +1300,7 @@
         <v>1.157548331422882</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,40 +1308,40 @@
         <v>12</v>
       </c>
       <c r="C14">
+        <v>0.7321648062775787</v>
+      </c>
+      <c r="D14">
         <v>1.169577323161082</v>
       </c>
-      <c r="D14">
-        <v>2.592203535552605</v>
-      </c>
       <c r="E14">
-        <v>0.5719322330848897</v>
+        <v>0.5149492627822729</v>
       </c>
       <c r="F14">
+        <v>1.416538810726675</v>
+      </c>
+      <c r="G14">
         <v>1.169577323161082</v>
       </c>
-      <c r="G14">
-        <v>0.5149492627822733</v>
-      </c>
       <c r="H14">
-        <v>1.416538810726675</v>
+        <v>2.592203535552606</v>
       </c>
       <c r="I14">
-        <v>0.732164806277579</v>
+        <v>0.5719322330848896</v>
       </c>
       <c r="J14">
-        <v>2.592203535552605</v>
+        <v>2.592203535552606</v>
       </c>
       <c r="K14">
         <v>1.169577323161082</v>
       </c>
       <c r="L14">
-        <v>0.5719322330848897</v>
+        <v>0.5719322330848896</v>
       </c>
       <c r="M14">
-        <v>1.582067884318747</v>
+        <v>1.582067884318748</v>
       </c>
       <c r="N14">
-        <v>1.582067884318747</v>
+        <v>1.582067884318748</v>
       </c>
       <c r="O14">
         <v>1.526891526454723</v>
@@ -1410,7 +1362,7 @@
         <v>1.166227661930851</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,25 +1370,25 @@
         <v>13</v>
       </c>
       <c r="C15">
+        <v>0.9656949855975993</v>
+      </c>
+      <c r="D15">
         <v>0.460093149710577</v>
       </c>
-      <c r="D15">
+      <c r="E15">
+        <v>0.8599285113765774</v>
+      </c>
+      <c r="F15">
+        <v>1.294555699278245</v>
+      </c>
+      <c r="G15">
+        <v>0.460093149710577</v>
+      </c>
+      <c r="H15">
         <v>0.3382457532534768</v>
       </c>
-      <c r="E15">
+      <c r="I15">
         <v>1.137260743501238</v>
-      </c>
-      <c r="F15">
-        <v>0.460093149710577</v>
-      </c>
-      <c r="G15">
-        <v>0.8599285113765774</v>
-      </c>
-      <c r="H15">
-        <v>1.294555699278245</v>
-      </c>
-      <c r="I15">
-        <v>0.9656949855975993</v>
       </c>
       <c r="J15">
         <v>0.3382457532534768</v>
@@ -1472,7 +1424,7 @@
         <v>0.8426298071196188</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9901648375924212</v>
+        <v>1.210049861477388</v>
       </c>
       <c r="D16">
-        <v>1.000590412167711</v>
+        <v>1.600412235653762</v>
       </c>
       <c r="E16">
-        <v>1.006287475414783</v>
+        <v>1.03739025753116</v>
       </c>
       <c r="F16">
-        <v>0.9901648375924212</v>
+        <v>0.4857635026837779</v>
       </c>
       <c r="G16">
-        <v>1.008006457960356</v>
+        <v>1.600412235653762</v>
       </c>
       <c r="H16">
-        <v>1.00013987294296</v>
+        <v>0.2090365231248076</v>
       </c>
       <c r="I16">
-        <v>0.9998056166547731</v>
+        <v>1.057214721478601</v>
       </c>
       <c r="J16">
-        <v>1.000590412167711</v>
+        <v>0.2090365231248076</v>
       </c>
       <c r="K16">
-        <v>0.9901648375924212</v>
+        <v>1.600412235653762</v>
       </c>
       <c r="L16">
-        <v>1.006287475414783</v>
+        <v>1.057214721478601</v>
       </c>
       <c r="M16">
-        <v>1.003438943791247</v>
+        <v>0.6331256223017042</v>
       </c>
       <c r="N16">
-        <v>1.003438943791247</v>
+        <v>0.6331256223017042</v>
       </c>
       <c r="O16">
-        <v>1.002339253508485</v>
+        <v>0.5840049157623954</v>
       </c>
       <c r="P16">
-        <v>0.9990142417249719</v>
+        <v>0.955554493419057</v>
       </c>
       <c r="Q16">
-        <v>0.9990142417249719</v>
+        <v>0.955554493419057</v>
       </c>
       <c r="R16">
-        <v>0.9968018906918342</v>
+        <v>1.116768928977733</v>
       </c>
       <c r="S16">
-        <v>0.9968018906918342</v>
+        <v>1.116768928977733</v>
       </c>
       <c r="T16">
-        <v>1.000832445455501</v>
+        <v>0.9333111836582494</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.012978432780892</v>
+        <v>1.156744540744145</v>
       </c>
       <c r="D17">
-        <v>0.9961676876835244</v>
+        <v>1.371890831770204</v>
       </c>
       <c r="E17">
-        <v>0.9930390564969289</v>
+        <v>1.17023619454586</v>
       </c>
       <c r="F17">
-        <v>1.012978432780892</v>
+        <v>0.6036607130371823</v>
       </c>
       <c r="G17">
-        <v>0.9945560134745595</v>
+        <v>1.371890831770204</v>
       </c>
       <c r="H17">
-        <v>0.9987874285502698</v>
+        <v>0.4072356006185237</v>
       </c>
       <c r="I17">
-        <v>1.000388967361674</v>
+        <v>1.089145758223907</v>
       </c>
       <c r="J17">
-        <v>0.9961676876835244</v>
+        <v>0.4072356006185237</v>
       </c>
       <c r="K17">
-        <v>1.012978432780892</v>
+        <v>1.371890831770204</v>
       </c>
       <c r="L17">
-        <v>0.9930390564969289</v>
+        <v>1.089145758223907</v>
       </c>
       <c r="M17">
-        <v>0.9946033720902266</v>
+        <v>0.7481906794212156</v>
       </c>
       <c r="N17">
-        <v>0.9946033720902266</v>
+        <v>0.7481906794212156</v>
       </c>
       <c r="O17">
-        <v>0.9959980575769077</v>
+        <v>0.7000140239598712</v>
       </c>
       <c r="P17">
-        <v>1.000728392320449</v>
+        <v>0.9560907302042118</v>
       </c>
       <c r="Q17">
-        <v>1.000728392320448</v>
+        <v>0.9560907302042118</v>
       </c>
       <c r="R17">
-        <v>1.00379090243556</v>
+        <v>1.06004075559571</v>
       </c>
       <c r="S17">
-        <v>1.00379090243556</v>
+        <v>1.06004075559571</v>
       </c>
       <c r="T17">
-        <v>0.9993195977246415</v>
+        <v>0.9664856064899703</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.001133306655406</v>
+        <v>1.050140256938129</v>
       </c>
       <c r="D18">
-        <v>0.9896970702973916</v>
+        <v>0.9214837168391821</v>
       </c>
       <c r="E18">
-        <v>1.019154221390338</v>
+        <v>1.429875709636403</v>
       </c>
       <c r="F18">
-        <v>1.001133306655406</v>
+        <v>0.8393091163303846</v>
       </c>
       <c r="G18">
-        <v>1.023910964601054</v>
+        <v>0.9214837168391821</v>
       </c>
       <c r="H18">
-        <v>0.9877795877359058</v>
+        <v>0.8028804776469219</v>
       </c>
       <c r="I18">
-        <v>1.001200130084859</v>
+        <v>1.150355290383108</v>
       </c>
       <c r="J18">
-        <v>0.9896970702973916</v>
+        <v>0.8028804776469219</v>
       </c>
       <c r="K18">
-        <v>1.001133306655406</v>
+        <v>0.9214837168391821</v>
       </c>
       <c r="L18">
-        <v>1.019154221390338</v>
+        <v>1.150355290383108</v>
       </c>
       <c r="M18">
-        <v>1.004425645843865</v>
+        <v>0.976617884015015</v>
       </c>
       <c r="N18">
-        <v>1.004425645843865</v>
+        <v>0.976617884015015</v>
       </c>
       <c r="O18">
-        <v>0.9988769598078783</v>
+        <v>0.9308482947868049</v>
       </c>
       <c r="P18">
-        <v>1.003328199447712</v>
+        <v>0.9582398282897374</v>
       </c>
       <c r="Q18">
-        <v>1.003328199447712</v>
+        <v>0.9582398282897374</v>
       </c>
       <c r="R18">
-        <v>1.002779476249635</v>
+        <v>0.9490508004270986</v>
       </c>
       <c r="S18">
-        <v>1.002779476249635</v>
+        <v>0.9490508004270986</v>
       </c>
       <c r="T18">
-        <v>1.003812546794159</v>
+        <v>1.032340761295688</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>1.048794619980932</v>
+      </c>
+      <c r="D19">
+        <v>0.8556526672171053</v>
+      </c>
+      <c r="E19">
+        <v>1.528989474783742</v>
+      </c>
+      <c r="F19">
+        <v>0.8307592704154194</v>
+      </c>
+      <c r="G19">
+        <v>0.8556526672171053</v>
+      </c>
+      <c r="H19">
+        <v>0.8148761162756484</v>
+      </c>
+      <c r="I19">
+        <v>1.203834576404172</v>
+      </c>
+      <c r="J19">
+        <v>0.8148761162756484</v>
+      </c>
+      <c r="K19">
+        <v>0.8556526672171053</v>
+      </c>
+      <c r="L19">
+        <v>1.203834576404172</v>
+      </c>
+      <c r="M19">
+        <v>1.00935534633991</v>
+      </c>
+      <c r="N19">
+        <v>1.00935534633991</v>
+      </c>
+      <c r="O19">
+        <v>0.9498233210317465</v>
+      </c>
+      <c r="P19">
+        <v>0.9581211199656418</v>
+      </c>
+      <c r="Q19">
+        <v>0.9581211199656418</v>
+      </c>
+      <c r="R19">
+        <v>0.9325040067785076</v>
+      </c>
+      <c r="S19">
+        <v>0.9325040067785076</v>
+      </c>
+      <c r="T19">
+        <v>1.04715112084617</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9998056166547734</v>
+      </c>
+      <c r="D20">
+        <v>0.9901648375924216</v>
+      </c>
+      <c r="E20">
+        <v>1.008006457960355</v>
+      </c>
+      <c r="F20">
+        <v>1.00013987294296</v>
+      </c>
+      <c r="G20">
+        <v>0.9901648375924216</v>
+      </c>
+      <c r="H20">
+        <v>1.000590412167711</v>
+      </c>
+      <c r="I20">
+        <v>1.006287475414783</v>
+      </c>
+      <c r="J20">
+        <v>1.000590412167711</v>
+      </c>
+      <c r="K20">
+        <v>0.9901648375924216</v>
+      </c>
+      <c r="L20">
+        <v>1.006287475414783</v>
+      </c>
+      <c r="M20">
+        <v>1.003438943791247</v>
+      </c>
+      <c r="N20">
+        <v>1.003438943791247</v>
+      </c>
+      <c r="O20">
+        <v>1.002339253508485</v>
+      </c>
+      <c r="P20">
+        <v>0.999014241724972</v>
+      </c>
+      <c r="Q20">
+        <v>0.999014241724972</v>
+      </c>
+      <c r="R20">
+        <v>0.9968018906918344</v>
+      </c>
+      <c r="S20">
+        <v>0.9968018906918344</v>
+      </c>
+      <c r="T20">
+        <v>1.000832445455501</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.000388967361674</v>
+      </c>
+      <c r="D21">
+        <v>1.012978432780893</v>
+      </c>
+      <c r="E21">
+        <v>0.9945560134745594</v>
+      </c>
+      <c r="F21">
+        <v>0.9987874285502695</v>
+      </c>
+      <c r="G21">
+        <v>1.012978432780893</v>
+      </c>
+      <c r="H21">
+        <v>0.9961676876835244</v>
+      </c>
+      <c r="I21">
+        <v>0.993039056496929</v>
+      </c>
+      <c r="J21">
+        <v>0.9961676876835244</v>
+      </c>
+      <c r="K21">
+        <v>1.012978432780893</v>
+      </c>
+      <c r="L21">
+        <v>0.993039056496929</v>
+      </c>
+      <c r="M21">
+        <v>0.9946033720902268</v>
+      </c>
+      <c r="N21">
+        <v>0.9946033720902268</v>
+      </c>
+      <c r="O21">
+        <v>0.9959980575769077</v>
+      </c>
+      <c r="P21">
+        <v>1.000728392320449</v>
+      </c>
+      <c r="Q21">
+        <v>1.000728392320449</v>
+      </c>
+      <c r="R21">
+        <v>1.00379090243556</v>
+      </c>
+      <c r="S21">
+        <v>1.00379090243556</v>
+      </c>
+      <c r="T21">
+        <v>0.9993195977246416</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.001200130084859</v>
+      </c>
+      <c r="D22">
+        <v>1.001133306655406</v>
+      </c>
+      <c r="E22">
+        <v>1.023910964601053</v>
+      </c>
+      <c r="F22">
+        <v>0.9877795877359051</v>
+      </c>
+      <c r="G22">
+        <v>1.001133306655406</v>
+      </c>
+      <c r="H22">
+        <v>0.9896970702973916</v>
+      </c>
+      <c r="I22">
+        <v>1.019154221390338</v>
+      </c>
+      <c r="J22">
+        <v>0.9896970702973916</v>
+      </c>
+      <c r="K22">
+        <v>1.001133306655406</v>
+      </c>
+      <c r="L22">
+        <v>1.019154221390338</v>
+      </c>
+      <c r="M22">
+        <v>1.004425645843865</v>
+      </c>
+      <c r="N22">
+        <v>1.004425645843865</v>
+      </c>
+      <c r="O22">
+        <v>0.9988769598078782</v>
+      </c>
+      <c r="P22">
+        <v>1.003328199447712</v>
+      </c>
+      <c r="Q22">
+        <v>1.003328199447712</v>
+      </c>
+      <c r="R22">
+        <v>1.002779476249636</v>
+      </c>
+      <c r="S22">
+        <v>1.002779476249636</v>
+      </c>
+      <c r="T22">
+        <v>1.003812546794159</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.013722799835608</v>
+      </c>
+      <c r="D23">
         <v>0.9239332489723801</v>
       </c>
-      <c r="D19">
-        <v>0.9698483304192462</v>
-      </c>
-      <c r="E19">
+      <c r="E23">
+        <v>1.058359856323744</v>
+      </c>
+      <c r="F23">
+        <v>0.976646934511148</v>
+      </c>
+      <c r="G23">
+        <v>0.9239332489723801</v>
+      </c>
+      <c r="H23">
+        <v>0.969848330419246</v>
+      </c>
+      <c r="I23">
         <v>1.056723192372597</v>
       </c>
-      <c r="F19">
+      <c r="J23">
+        <v>0.969848330419246</v>
+      </c>
+      <c r="K23">
         <v>0.9239332489723801</v>
       </c>
-      <c r="G19">
-        <v>1.058359856323744</v>
-      </c>
-      <c r="H19">
-        <v>0.9766469345111478</v>
-      </c>
-      <c r="I19">
-        <v>1.013722799835608</v>
-      </c>
-      <c r="J19">
-        <v>0.9698483304192462</v>
-      </c>
-      <c r="K19">
-        <v>0.9239332489723801</v>
-      </c>
-      <c r="L19">
+      <c r="L23">
         <v>1.056723192372597</v>
       </c>
-      <c r="M19">
+      <c r="M23">
         <v>1.013285761395922</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>1.013285761395922</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>1.001072819100997</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>0.9835015905880744</v>
       </c>
-      <c r="Q19">
-        <v>0.9835015905880745</v>
-      </c>
-      <c r="R19">
-        <v>0.9686095051841509</v>
-      </c>
-      <c r="S19">
-        <v>0.9686095051841509</v>
-      </c>
-      <c r="T19">
+      <c r="Q23">
+        <v>0.9835015905880744</v>
+      </c>
+      <c r="R23">
+        <v>0.9686095051841508</v>
+      </c>
+      <c r="S23">
+        <v>0.9686095051841508</v>
+      </c>
+      <c r="T23">
         <v>0.9998723937391206</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/Alpha4F-HW10.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha4F-HW10.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[3, 2, 1]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.011091215900098</v>
+        <v>1.061163375208932</v>
       </c>
       <c r="D3">
-        <v>1.034511613642781</v>
+        <v>0.926808901289628</v>
       </c>
       <c r="E3">
-        <v>0.9994888363863</v>
+        <v>1.49214635807925</v>
       </c>
       <c r="F3">
-        <v>0.971636974082732</v>
+        <v>0.8011758685036735</v>
       </c>
       <c r="G3">
-        <v>1.034511613642781</v>
+        <v>0.926808901289628</v>
       </c>
       <c r="H3">
-        <v>0.9601794332936798</v>
+        <v>0.7562837745640705</v>
       </c>
       <c r="I3">
-        <v>1.002081300727459</v>
+        <v>1.183240973203168</v>
       </c>
       <c r="J3">
-        <v>0.9601794332936798</v>
+        <v>0.7562837745640705</v>
       </c>
       <c r="K3">
-        <v>1.034511613642781</v>
+        <v>0.926808901289628</v>
       </c>
       <c r="L3">
-        <v>1.002081300727459</v>
+        <v>1.183240973203168</v>
       </c>
       <c r="M3">
-        <v>0.9811303670105695</v>
+        <v>0.9697623738836191</v>
       </c>
       <c r="N3">
-        <v>0.9811303670105695</v>
+        <v>0.9697623738836191</v>
       </c>
       <c r="O3">
-        <v>0.9779659027012904</v>
+        <v>0.9135668720903038</v>
       </c>
       <c r="P3">
-        <v>0.9989241158879735</v>
+        <v>0.955444549685622</v>
       </c>
       <c r="Q3">
-        <v>0.9989241158879733</v>
+        <v>0.955444549685622</v>
       </c>
       <c r="R3">
-        <v>1.007820990326675</v>
+        <v>0.9482856375866235</v>
       </c>
       <c r="S3">
-        <v>1.007820990326675</v>
+        <v>0.9482856375866235</v>
       </c>
       <c r="T3">
-        <v>0.9964982290055083</v>
+        <v>1.036803208474787</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.020575385624311</v>
+        <v>1.05558290864424</v>
       </c>
       <c r="D4">
-        <v>1.068893660203819</v>
+        <v>0.9172121394844381</v>
       </c>
       <c r="E4">
-        <v>0.9982108704390896</v>
+        <v>1.461303672884659</v>
       </c>
       <c r="F4">
-        <v>0.94543778981016</v>
+        <v>0.822310270439358</v>
       </c>
       <c r="G4">
-        <v>1.068893660203819</v>
+        <v>0.9172121394844381</v>
       </c>
       <c r="H4">
-        <v>0.9211221078750735</v>
+        <v>0.7823180215626718</v>
       </c>
       <c r="I4">
-        <v>1.002813121500252</v>
+        <v>1.167235448252975</v>
       </c>
       <c r="J4">
-        <v>0.9211221078750735</v>
+        <v>0.7823180215626718</v>
       </c>
       <c r="K4">
-        <v>1.068893660203819</v>
+        <v>0.9172121394844381</v>
       </c>
       <c r="L4">
-        <v>1.002813121500252</v>
+        <v>1.167235448252975</v>
       </c>
       <c r="M4">
-        <v>0.9619676146876629</v>
+        <v>0.9747767349078236</v>
       </c>
       <c r="N4">
-        <v>0.9619676146876629</v>
+        <v>0.9747767349078236</v>
       </c>
       <c r="O4">
-        <v>0.9564576730618285</v>
+        <v>0.9239545800850016</v>
       </c>
       <c r="P4">
-        <v>0.9976096298597149</v>
+        <v>0.9555885364333617</v>
       </c>
       <c r="Q4">
-        <v>0.9976096298597149</v>
+        <v>0.9555885364333617</v>
       </c>
       <c r="R4">
-        <v>1.015430637445741</v>
+        <v>0.9459944371961309</v>
       </c>
       <c r="S4">
-        <v>1.015430637445741</v>
+        <v>0.9459944371961309</v>
       </c>
       <c r="T4">
-        <v>0.9928421559087842</v>
+        <v>1.034327076878057</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.036488882272237</v>
+        <v>1.07112826973046</v>
       </c>
       <c r="D5">
-        <v>1.120671282223248</v>
+        <v>0.9461825072668464</v>
       </c>
       <c r="E5">
-        <v>1.000065606446719</v>
+        <v>1.551944824257141</v>
       </c>
       <c r="F5">
-        <v>0.8950675305814249</v>
+        <v>0.7613832269169807</v>
       </c>
       <c r="G5">
-        <v>1.120671282223248</v>
+        <v>0.9461825072668464</v>
       </c>
       <c r="H5">
-        <v>0.8499110597775564</v>
+        <v>0.7076875801214284</v>
       </c>
       <c r="I5">
-        <v>1.008479131045831</v>
+        <v>1.213577266008086</v>
       </c>
       <c r="J5">
-        <v>0.8499110597775564</v>
+        <v>0.7076875801214284</v>
       </c>
       <c r="K5">
-        <v>1.120671282223248</v>
+        <v>0.9461825072668464</v>
       </c>
       <c r="L5">
-        <v>1.008479131045831</v>
+        <v>1.213577266008086</v>
       </c>
       <c r="M5">
-        <v>0.9291950954116939</v>
+        <v>0.9606324230647574</v>
       </c>
       <c r="N5">
-        <v>0.9291950954116939</v>
+        <v>0.9606324230647574</v>
       </c>
       <c r="O5">
-        <v>0.9178192404682708</v>
+        <v>0.8942160243488319</v>
       </c>
       <c r="P5">
-        <v>0.9930204910155455</v>
+        <v>0.9558157844654538</v>
       </c>
       <c r="Q5">
-        <v>0.9930204910155455</v>
+        <v>0.9558157844654538</v>
       </c>
       <c r="R5">
-        <v>1.024933188817471</v>
+        <v>0.953407465165802</v>
       </c>
       <c r="S5">
-        <v>1.024933188817471</v>
+        <v>0.953407465165802</v>
       </c>
       <c r="T5">
-        <v>0.9851139153911695</v>
+        <v>1.041983945716824</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.058924197648325</v>
+        <v>1.079385567215909</v>
       </c>
       <c r="D6">
-        <v>1.155766345816073</v>
+        <v>0.9683720082272728</v>
       </c>
       <c r="E6">
-        <v>1.047012367000842</v>
+        <v>1.608375318737164</v>
       </c>
       <c r="F6">
-        <v>0.7980257483313399</v>
+        <v>0.7257074915738636</v>
       </c>
       <c r="G6">
-        <v>1.155766345816073</v>
+        <v>0.9683720082272728</v>
       </c>
       <c r="H6">
-        <v>0.8845945138116911</v>
+        <v>0.6650085654501711</v>
       </c>
       <c r="I6">
-        <v>0.9848815205336957</v>
+        <v>1.242025032164773</v>
       </c>
       <c r="J6">
-        <v>0.8845945138116911</v>
+        <v>0.6650085654501711</v>
       </c>
       <c r="K6">
-        <v>1.155766345816073</v>
+        <v>0.9683720082272728</v>
       </c>
       <c r="L6">
-        <v>0.9848815205336957</v>
+        <v>1.242025032164773</v>
       </c>
       <c r="M6">
-        <v>0.9347380171726933</v>
+        <v>0.953516798807472</v>
       </c>
       <c r="N6">
-        <v>0.9347380171726933</v>
+        <v>0.953516798807472</v>
       </c>
       <c r="O6">
-        <v>0.8891672608922422</v>
+        <v>0.8775803630629359</v>
       </c>
       <c r="P6">
-        <v>1.008414126720487</v>
+        <v>0.9584685352807388</v>
       </c>
       <c r="Q6">
-        <v>1.008414126720487</v>
+        <v>0.9584685352807388</v>
       </c>
       <c r="R6">
-        <v>1.045252181494383</v>
+        <v>0.9609444035173723</v>
       </c>
       <c r="S6">
-        <v>1.045252181494383</v>
+        <v>0.9609444035173723</v>
       </c>
       <c r="T6">
-        <v>0.9882007821903277</v>
+        <v>1.048145663894859</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000121897584107</v>
+        <v>1.364087162401869</v>
       </c>
       <c r="D7">
-        <v>0.9999099039813395</v>
+        <v>2.33416447239193</v>
       </c>
       <c r="E7">
-        <v>1.003889581534907</v>
+        <v>0.4103731347693503</v>
       </c>
       <c r="F7">
-        <v>0.9986490350679214</v>
+        <v>0.25352378494932</v>
       </c>
       <c r="G7">
-        <v>0.9999099039813395</v>
+        <v>2.33416447239193</v>
       </c>
       <c r="H7">
-        <v>0.9988412249302886</v>
+        <v>0.005011804104962953</v>
       </c>
       <c r="I7">
-        <v>1.001421248751758</v>
+        <v>1.085725114796209</v>
       </c>
       <c r="J7">
-        <v>0.9988412249302886</v>
+        <v>0.005011804104962953</v>
       </c>
       <c r="K7">
-        <v>0.9999099039813395</v>
+        <v>2.33416447239193</v>
       </c>
       <c r="L7">
-        <v>1.001421248751758</v>
+        <v>1.085725114796209</v>
       </c>
       <c r="M7">
-        <v>1.000131236841023</v>
+        <v>0.5453684594505858</v>
       </c>
       <c r="N7">
-        <v>1.000131236841023</v>
+        <v>0.5453684594505858</v>
       </c>
       <c r="O7">
-        <v>0.9996371695833225</v>
+        <v>0.4480869012834972</v>
       </c>
       <c r="P7">
-        <v>1.000057459221129</v>
+        <v>1.141633797097701</v>
       </c>
       <c r="Q7">
-        <v>1.000057459221129</v>
+        <v>1.141633797097701</v>
       </c>
       <c r="R7">
-        <v>1.000020570411181</v>
+        <v>1.439766465921258</v>
       </c>
       <c r="S7">
-        <v>1.000020570411181</v>
+        <v>1.439766465921258</v>
       </c>
       <c r="T7">
-        <v>1.00047214864172</v>
+        <v>0.9088142455689403</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.00046237433144</v>
+        <v>1.361980976844551</v>
       </c>
       <c r="D8">
-        <v>1.001440951225108</v>
+        <v>2.334987030732487</v>
       </c>
       <c r="E8">
-        <v>1.0083834978936</v>
+        <v>0.4248095724664603</v>
       </c>
       <c r="F8">
-        <v>0.9965944982674537</v>
+        <v>0.2523059868903106</v>
       </c>
       <c r="G8">
-        <v>1.001440951225108</v>
+        <v>2.334987030732487</v>
       </c>
       <c r="H8">
-        <v>0.9955058563491976</v>
+        <v>0.004985389454532943</v>
       </c>
       <c r="I8">
-        <v>1.003140951042419</v>
+        <v>1.089124445491166</v>
       </c>
       <c r="J8">
-        <v>0.9955058563491976</v>
+        <v>0.004985389454532943</v>
       </c>
       <c r="K8">
-        <v>1.001440951225108</v>
+        <v>2.334987030732487</v>
       </c>
       <c r="L8">
-        <v>1.003140951042419</v>
+        <v>1.089124445491166</v>
       </c>
       <c r="M8">
-        <v>0.9993234036958083</v>
+        <v>0.5470549174728496</v>
       </c>
       <c r="N8">
-        <v>0.9993234036958083</v>
+        <v>0.5470549174728496</v>
       </c>
       <c r="O8">
-        <v>0.9984137685530236</v>
+        <v>0.4488052739453366</v>
       </c>
       <c r="P8">
-        <v>1.000029252872242</v>
+        <v>1.143032288559395</v>
       </c>
       <c r="Q8">
-        <v>1.000029252872242</v>
+        <v>1.143032288559396</v>
       </c>
       <c r="R8">
-        <v>1.000382177460458</v>
+        <v>1.441020974102668</v>
       </c>
       <c r="S8">
-        <v>1.000382177460458</v>
+        <v>1.441020974102668</v>
       </c>
       <c r="T8">
-        <v>1.000921354851536</v>
+        <v>0.9113655669799181</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000191924891336</v>
+        <v>1.36071622515061</v>
       </c>
       <c r="D9">
-        <v>1.005865376723887</v>
+        <v>2.326773434143459</v>
       </c>
       <c r="E9">
-        <v>1.011250653097286</v>
+        <v>0.4415606297604808</v>
       </c>
       <c r="F9">
-        <v>0.9950331295071324</v>
+        <v>0.2515088900253414</v>
       </c>
       <c r="G9">
-        <v>1.005865376723887</v>
+        <v>2.326773434143459</v>
       </c>
       <c r="H9">
-        <v>0.9943422698701625</v>
+        <v>0.004972448872639219</v>
       </c>
       <c r="I9">
-        <v>1.003126901506553</v>
+        <v>1.095583327598137</v>
       </c>
       <c r="J9">
-        <v>0.9943422698701625</v>
+        <v>0.004972448872639219</v>
       </c>
       <c r="K9">
-        <v>1.005865376723887</v>
+        <v>2.326773434143459</v>
       </c>
       <c r="L9">
-        <v>1.003126901506553</v>
+        <v>1.095583327598137</v>
       </c>
       <c r="M9">
-        <v>0.9987345856883577</v>
+        <v>0.550277888235388</v>
       </c>
       <c r="N9">
-        <v>0.9987345856883577</v>
+        <v>0.550277888235388</v>
       </c>
       <c r="O9">
-        <v>0.9975007669612825</v>
+        <v>0.4506882221653725</v>
       </c>
       <c r="P9">
-        <v>1.001111516033534</v>
+        <v>1.142443070204745</v>
       </c>
       <c r="Q9">
-        <v>1.001111516033534</v>
+        <v>1.142443070204745</v>
       </c>
       <c r="R9">
-        <v>1.002299981206122</v>
+        <v>1.438525661189423</v>
       </c>
       <c r="S9">
-        <v>1.002299981206122</v>
+        <v>1.438525661189423</v>
       </c>
       <c r="T9">
-        <v>1.001635042599393</v>
+        <v>0.9135191592584445</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000539618287998</v>
+        <v>1.351379526791148</v>
       </c>
       <c r="D10">
-        <v>1.008278905715921</v>
+        <v>2.359586875736283</v>
       </c>
       <c r="E10">
-        <v>1.027171805169818</v>
+        <v>0.4676550707539833</v>
       </c>
       <c r="F10">
-        <v>0.9896947854804907</v>
+        <v>0.2486353401839582</v>
       </c>
       <c r="G10">
-        <v>1.008278905715921</v>
+        <v>2.359586875736283</v>
       </c>
       <c r="H10">
-        <v>0.9878055720177271</v>
+        <v>0.004917982594839492</v>
       </c>
       <c r="I10">
-        <v>1.007767192468921</v>
+        <v>1.098174691462896</v>
       </c>
       <c r="J10">
-        <v>0.9878055720177271</v>
+        <v>0.004917982594839492</v>
       </c>
       <c r="K10">
-        <v>1.008278905715921</v>
+        <v>2.359586875736283</v>
       </c>
       <c r="L10">
-        <v>1.007767192468921</v>
+        <v>1.098174691462896</v>
       </c>
       <c r="M10">
-        <v>0.9977863822433239</v>
+        <v>0.5515463370288676</v>
       </c>
       <c r="N10">
-        <v>0.9977863822433239</v>
+        <v>0.5515463370288676</v>
       </c>
       <c r="O10">
-        <v>0.9950891833223796</v>
+        <v>0.4505760047472311</v>
       </c>
       <c r="P10">
-        <v>1.001283890067523</v>
+        <v>1.154226516598006</v>
       </c>
       <c r="Q10">
-        <v>1.001283890067523</v>
+        <v>1.154226516598006</v>
       </c>
       <c r="R10">
-        <v>1.003032643979622</v>
+        <v>1.455566606382575</v>
       </c>
       <c r="S10">
-        <v>1.003032643979622</v>
+        <v>1.455566606382575</v>
       </c>
       <c r="T10">
-        <v>1.003542979856813</v>
+        <v>0.9217249145871845</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.001126026072246</v>
+        <v>1.013149190131358</v>
       </c>
       <c r="D11">
-        <v>1.024230015163155</v>
+        <v>1.043884243563805</v>
       </c>
       <c r="E11">
-        <v>1.035081084269251</v>
+        <v>0.9937644681218285</v>
       </c>
       <c r="F11">
-        <v>0.9825253643213263</v>
+        <v>0.968703055494376</v>
       </c>
       <c r="G11">
-        <v>1.024230015163155</v>
+        <v>1.043884243563805</v>
       </c>
       <c r="H11">
-        <v>0.978186473377652</v>
+        <v>0.9535551779206815</v>
       </c>
       <c r="I11">
-        <v>1.010849173480775</v>
+        <v>0.9991255035532897</v>
       </c>
       <c r="J11">
-        <v>0.978186473377652</v>
+        <v>0.9535551779206815</v>
       </c>
       <c r="K11">
-        <v>1.024230015163155</v>
+        <v>1.043884243563805</v>
       </c>
       <c r="L11">
-        <v>1.010849173480775</v>
+        <v>0.9991255035532897</v>
       </c>
       <c r="M11">
-        <v>0.9945178234292137</v>
+        <v>0.9763403407369855</v>
       </c>
       <c r="N11">
-        <v>0.9945178234292137</v>
+        <v>0.9763403407369855</v>
       </c>
       <c r="O11">
-        <v>0.9905203370599178</v>
+        <v>0.973794578989449</v>
       </c>
       <c r="P11">
-        <v>1.004421887340528</v>
+        <v>0.9988549750125921</v>
       </c>
       <c r="Q11">
-        <v>1.004421887340528</v>
+        <v>0.9988549750125921</v>
       </c>
       <c r="R11">
-        <v>1.009373919296185</v>
+        <v>1.010112292150395</v>
       </c>
       <c r="S11">
-        <v>1.009373919296185</v>
+        <v>1.010112292150395</v>
       </c>
       <c r="T11">
-        <v>1.005333022780734</v>
+        <v>0.9953636064642231</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.02020750372489</v>
+        <v>1.00742827634943</v>
       </c>
       <c r="D12">
-        <v>0.8981445638736917</v>
+        <v>1.022086685616024</v>
       </c>
       <c r="E12">
-        <v>0.2657095148697233</v>
+        <v>0.9964125579807188</v>
       </c>
       <c r="F12">
-        <v>1.315611249273824</v>
+        <v>0.9829103392862261</v>
       </c>
       <c r="G12">
-        <v>0.8981445638736917</v>
+        <v>1.022086685616024</v>
       </c>
       <c r="H12">
-        <v>0.5683255435415164</v>
+        <v>0.9741357272690291</v>
       </c>
       <c r="I12">
-        <v>1.046837031696213</v>
+        <v>1.002274186943229</v>
       </c>
       <c r="J12">
-        <v>0.5683255435415164</v>
+        <v>0.9741357272690291</v>
       </c>
       <c r="K12">
-        <v>0.8981445638736917</v>
+        <v>1.022086685616024</v>
       </c>
       <c r="L12">
-        <v>1.046837031696213</v>
+        <v>1.002274186943229</v>
       </c>
       <c r="M12">
-        <v>0.8075812876188647</v>
+        <v>0.9882049571061291</v>
       </c>
       <c r="N12">
-        <v>0.8075812876188647</v>
+        <v>0.9882049571061291</v>
       </c>
       <c r="O12">
-        <v>0.9769246081705178</v>
+        <v>0.9864400844994948</v>
       </c>
       <c r="P12">
-        <v>0.8377690463704738</v>
+        <v>0.9994988666094274</v>
       </c>
       <c r="Q12">
-        <v>0.8377690463704738</v>
+        <v>0.9994988666094274</v>
       </c>
       <c r="R12">
-        <v>0.8528629257462782</v>
+        <v>1.005145821361077</v>
       </c>
       <c r="S12">
-        <v>0.8528629257462782</v>
+        <v>1.005145821361077</v>
       </c>
       <c r="T12">
-        <v>0.8524725678299765</v>
+        <v>0.9975412955741095</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.8812806094175586</v>
+        <v>1.028491411088513</v>
       </c>
       <c r="D13">
-        <v>1.202506630195198</v>
+        <v>1.070984245674008</v>
       </c>
       <c r="E13">
-        <v>1.275007559287129</v>
+        <v>0.9826869536180183</v>
       </c>
       <c r="F13">
-        <v>0.9335685699424507</v>
+        <v>0.9413564267195593</v>
       </c>
       <c r="G13">
-        <v>1.202506630195198</v>
+        <v>1.070984245674008</v>
       </c>
       <c r="H13">
-        <v>1.921457380605314</v>
+        <v>0.9137619856795139</v>
       </c>
       <c r="I13">
-        <v>0.7314692390896399</v>
+        <v>1.007785524220288</v>
       </c>
       <c r="J13">
-        <v>1.921457380605314</v>
+        <v>0.9137619856795139</v>
       </c>
       <c r="K13">
-        <v>1.202506630195198</v>
+        <v>1.070984245674008</v>
       </c>
       <c r="L13">
-        <v>0.7314692390896399</v>
+        <v>1.007785524220288</v>
       </c>
       <c r="M13">
-        <v>1.326463309847477</v>
+        <v>0.9607737549499011</v>
       </c>
       <c r="N13">
-        <v>1.326463309847477</v>
+        <v>0.9607737549499011</v>
       </c>
       <c r="O13">
-        <v>1.195498396545801</v>
+        <v>0.954301312206454</v>
       </c>
       <c r="P13">
-        <v>1.285144416630051</v>
+        <v>0.9975105851912701</v>
       </c>
       <c r="Q13">
-        <v>1.285144416630051</v>
+        <v>0.9975105851912701</v>
       </c>
       <c r="R13">
-        <v>1.264484970021337</v>
+        <v>1.015879000311954</v>
       </c>
       <c r="S13">
-        <v>1.264484970021337</v>
+        <v>1.015879000311954</v>
       </c>
       <c r="T13">
-        <v>1.157548331422882</v>
+        <v>0.9908444244999836</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.7321648062775787</v>
+        <v>1.029137543852758</v>
       </c>
       <c r="D14">
-        <v>1.169577323161082</v>
+        <v>1.094963446265396</v>
       </c>
       <c r="E14">
-        <v>0.5149492627822729</v>
+        <v>1.001775145508683</v>
       </c>
       <c r="F14">
-        <v>1.416538810726675</v>
+        <v>0.9260340723598898</v>
       </c>
       <c r="G14">
-        <v>1.169577323161082</v>
+        <v>1.094963446265396</v>
       </c>
       <c r="H14">
-        <v>2.592203535552606</v>
+        <v>0.8920553257588572</v>
       </c>
       <c r="I14">
-        <v>0.5719322330848896</v>
+        <v>1.009779825896125</v>
       </c>
       <c r="J14">
-        <v>2.592203535552606</v>
+        <v>0.8920553257588572</v>
       </c>
       <c r="K14">
-        <v>1.169577323161082</v>
+        <v>1.094963446265396</v>
       </c>
       <c r="L14">
-        <v>0.5719322330848896</v>
+        <v>1.009779825896125</v>
       </c>
       <c r="M14">
-        <v>1.582067884318748</v>
+        <v>0.9509175758274908</v>
       </c>
       <c r="N14">
-        <v>1.582067884318748</v>
+        <v>0.9509175758274908</v>
       </c>
       <c r="O14">
-        <v>1.526891526454723</v>
+        <v>0.9426230746716238</v>
       </c>
       <c r="P14">
-        <v>1.444571030599526</v>
+        <v>0.9989328659734592</v>
       </c>
       <c r="Q14">
-        <v>1.444571030599526</v>
+        <v>0.9989328659734594</v>
       </c>
       <c r="R14">
-        <v>1.375822603739915</v>
+        <v>1.022940511046444</v>
       </c>
       <c r="S14">
-        <v>1.375822603739915</v>
+        <v>1.022940511046444</v>
       </c>
       <c r="T14">
-        <v>1.166227661930851</v>
+        <v>0.9922908932736182</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9656949855975993</v>
+        <v>1.011091215900098</v>
       </c>
       <c r="D15">
-        <v>0.460093149710577</v>
+        <v>1.034511613642781</v>
       </c>
       <c r="E15">
-        <v>0.8599285113765774</v>
+        <v>0.9994888363863</v>
       </c>
       <c r="F15">
-        <v>1.294555699278245</v>
+        <v>0.971636974082732</v>
       </c>
       <c r="G15">
-        <v>0.460093149710577</v>
+        <v>1.034511613642781</v>
       </c>
       <c r="H15">
-        <v>0.3382457532534768</v>
+        <v>0.9601794332936798</v>
       </c>
       <c r="I15">
-        <v>1.137260743501238</v>
+        <v>1.002081300727459</v>
       </c>
       <c r="J15">
-        <v>0.3382457532534768</v>
+        <v>0.9601794332936798</v>
       </c>
       <c r="K15">
-        <v>0.460093149710577</v>
+        <v>1.034511613642781</v>
       </c>
       <c r="L15">
-        <v>1.137260743501238</v>
+        <v>1.002081300727459</v>
       </c>
       <c r="M15">
-        <v>0.7377532483773572</v>
+        <v>0.9811303670105695</v>
       </c>
       <c r="N15">
-        <v>0.7377532483773572</v>
+        <v>0.9811303670105695</v>
       </c>
       <c r="O15">
-        <v>0.9233540653443196</v>
+        <v>0.9779659027012904</v>
       </c>
       <c r="P15">
-        <v>0.6451998821550972</v>
+        <v>0.9989241158879735</v>
       </c>
       <c r="Q15">
-        <v>0.6451998821550972</v>
+        <v>0.9989241158879733</v>
       </c>
       <c r="R15">
-        <v>0.5989231990439671</v>
+        <v>1.007820990326675</v>
       </c>
       <c r="S15">
-        <v>0.5989231990439671</v>
+        <v>1.007820990326675</v>
       </c>
       <c r="T15">
-        <v>0.8426298071196188</v>
+        <v>0.9964982290055083</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.210049861477388</v>
+        <v>1.020575385624311</v>
       </c>
       <c r="D16">
-        <v>1.600412235653762</v>
+        <v>1.068893660203819</v>
       </c>
       <c r="E16">
-        <v>1.03739025753116</v>
+        <v>0.9982108704390896</v>
       </c>
       <c r="F16">
-        <v>0.4857635026837779</v>
+        <v>0.94543778981016</v>
       </c>
       <c r="G16">
-        <v>1.600412235653762</v>
+        <v>1.068893660203819</v>
       </c>
       <c r="H16">
-        <v>0.2090365231248076</v>
+        <v>0.9211221078750735</v>
       </c>
       <c r="I16">
-        <v>1.057214721478601</v>
+        <v>1.002813121500252</v>
       </c>
       <c r="J16">
-        <v>0.2090365231248076</v>
+        <v>0.9211221078750735</v>
       </c>
       <c r="K16">
-        <v>1.600412235653762</v>
+        <v>1.068893660203819</v>
       </c>
       <c r="L16">
-        <v>1.057214721478601</v>
+        <v>1.002813121500252</v>
       </c>
       <c r="M16">
-        <v>0.6331256223017042</v>
+        <v>0.9619676146876629</v>
       </c>
       <c r="N16">
-        <v>0.6331256223017042</v>
+        <v>0.9619676146876629</v>
       </c>
       <c r="O16">
-        <v>0.5840049157623954</v>
+        <v>0.9564576730618285</v>
       </c>
       <c r="P16">
-        <v>0.955554493419057</v>
+        <v>0.9976096298597149</v>
       </c>
       <c r="Q16">
-        <v>0.955554493419057</v>
+        <v>0.9976096298597149</v>
       </c>
       <c r="R16">
-        <v>1.116768928977733</v>
+        <v>1.015430637445741</v>
       </c>
       <c r="S16">
-        <v>1.116768928977733</v>
+        <v>1.015430637445741</v>
       </c>
       <c r="T16">
-        <v>0.9333111836582494</v>
+        <v>0.9928421559087842</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.156744540744145</v>
+        <v>1.036488882272237</v>
       </c>
       <c r="D17">
-        <v>1.371890831770204</v>
+        <v>1.120671282223248</v>
       </c>
       <c r="E17">
-        <v>1.17023619454586</v>
+        <v>1.000065606446719</v>
       </c>
       <c r="F17">
-        <v>0.6036607130371823</v>
+        <v>0.8950675305814249</v>
       </c>
       <c r="G17">
-        <v>1.371890831770204</v>
+        <v>1.120671282223248</v>
       </c>
       <c r="H17">
-        <v>0.4072356006185237</v>
+        <v>0.8499110597775564</v>
       </c>
       <c r="I17">
-        <v>1.089145758223907</v>
+        <v>1.008479131045831</v>
       </c>
       <c r="J17">
-        <v>0.4072356006185237</v>
+        <v>0.8499110597775564</v>
       </c>
       <c r="K17">
-        <v>1.371890831770204</v>
+        <v>1.120671282223248</v>
       </c>
       <c r="L17">
-        <v>1.089145758223907</v>
+        <v>1.008479131045831</v>
       </c>
       <c r="M17">
-        <v>0.7481906794212156</v>
+        <v>0.9291950954116939</v>
       </c>
       <c r="N17">
-        <v>0.7481906794212156</v>
+        <v>0.9291950954116939</v>
       </c>
       <c r="O17">
-        <v>0.7000140239598712</v>
+        <v>0.9178192404682708</v>
       </c>
       <c r="P17">
-        <v>0.9560907302042118</v>
+        <v>0.9930204910155455</v>
       </c>
       <c r="Q17">
-        <v>0.9560907302042118</v>
+        <v>0.9930204910155455</v>
       </c>
       <c r="R17">
-        <v>1.06004075559571</v>
+        <v>1.024933188817471</v>
       </c>
       <c r="S17">
-        <v>1.06004075559571</v>
+        <v>1.024933188817471</v>
       </c>
       <c r="T17">
-        <v>0.9664856064899703</v>
+        <v>0.9851139153911695</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.050140256938129</v>
+        <v>1.058924197648325</v>
       </c>
       <c r="D18">
-        <v>0.9214837168391821</v>
+        <v>1.155766345816073</v>
       </c>
       <c r="E18">
-        <v>1.429875709636403</v>
+        <v>1.047012367000842</v>
       </c>
       <c r="F18">
-        <v>0.8393091163303846</v>
+        <v>0.7980257483313399</v>
       </c>
       <c r="G18">
-        <v>0.9214837168391821</v>
+        <v>1.155766345816073</v>
       </c>
       <c r="H18">
-        <v>0.8028804776469219</v>
+        <v>0.8845945138116911</v>
       </c>
       <c r="I18">
-        <v>1.150355290383108</v>
+        <v>0.9848815205336957</v>
       </c>
       <c r="J18">
-        <v>0.8028804776469219</v>
+        <v>0.8845945138116911</v>
       </c>
       <c r="K18">
-        <v>0.9214837168391821</v>
+        <v>1.155766345816073</v>
       </c>
       <c r="L18">
-        <v>1.150355290383108</v>
+        <v>0.9848815205336957</v>
       </c>
       <c r="M18">
-        <v>0.976617884015015</v>
+        <v>0.9347380171726933</v>
       </c>
       <c r="N18">
-        <v>0.976617884015015</v>
+        <v>0.9347380171726933</v>
       </c>
       <c r="O18">
-        <v>0.9308482947868049</v>
+        <v>0.8891672608922422</v>
       </c>
       <c r="P18">
-        <v>0.9582398282897374</v>
+        <v>1.008414126720487</v>
       </c>
       <c r="Q18">
-        <v>0.9582398282897374</v>
+        <v>1.008414126720487</v>
       </c>
       <c r="R18">
-        <v>0.9490508004270986</v>
+        <v>1.045252181494383</v>
       </c>
       <c r="S18">
-        <v>0.9490508004270986</v>
+        <v>1.045252181494383</v>
       </c>
       <c r="T18">
-        <v>1.032340761295688</v>
+        <v>0.9882007821903277</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.048794619980932</v>
+        <v>1.000121897584107</v>
       </c>
       <c r="D19">
-        <v>0.8556526672171053</v>
+        <v>0.9999099039813395</v>
       </c>
       <c r="E19">
-        <v>1.528989474783742</v>
+        <v>1.003889581534907</v>
       </c>
       <c r="F19">
-        <v>0.8307592704154194</v>
+        <v>0.9986490350679214</v>
       </c>
       <c r="G19">
-        <v>0.8556526672171053</v>
+        <v>0.9999099039813395</v>
       </c>
       <c r="H19">
-        <v>0.8148761162756484</v>
+        <v>0.9988412249302886</v>
       </c>
       <c r="I19">
-        <v>1.203834576404172</v>
+        <v>1.001421248751758</v>
       </c>
       <c r="J19">
-        <v>0.8148761162756484</v>
+        <v>0.9988412249302886</v>
       </c>
       <c r="K19">
-        <v>0.8556526672171053</v>
+        <v>0.9999099039813395</v>
       </c>
       <c r="L19">
-        <v>1.203834576404172</v>
+        <v>1.001421248751758</v>
       </c>
       <c r="M19">
-        <v>1.00935534633991</v>
+        <v>1.000131236841023</v>
       </c>
       <c r="N19">
-        <v>1.00935534633991</v>
+        <v>1.000131236841023</v>
       </c>
       <c r="O19">
-        <v>0.9498233210317465</v>
+        <v>0.9996371695833225</v>
       </c>
       <c r="P19">
-        <v>0.9581211199656418</v>
+        <v>1.000057459221129</v>
       </c>
       <c r="Q19">
-        <v>0.9581211199656418</v>
+        <v>1.000057459221129</v>
       </c>
       <c r="R19">
-        <v>0.9325040067785076</v>
+        <v>1.000020570411181</v>
       </c>
       <c r="S19">
-        <v>0.9325040067785076</v>
+        <v>1.000020570411181</v>
       </c>
       <c r="T19">
-        <v>1.04715112084617</v>
+        <v>1.00047214864172</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9998056166547734</v>
+        <v>1.00046237433144</v>
       </c>
       <c r="D20">
-        <v>0.9901648375924216</v>
+        <v>1.001440951225108</v>
       </c>
       <c r="E20">
-        <v>1.008006457960355</v>
+        <v>1.0083834978936</v>
       </c>
       <c r="F20">
-        <v>1.00013987294296</v>
+        <v>0.9965944982674537</v>
       </c>
       <c r="G20">
-        <v>0.9901648375924216</v>
+        <v>1.001440951225108</v>
       </c>
       <c r="H20">
-        <v>1.000590412167711</v>
+        <v>0.9955058563491976</v>
       </c>
       <c r="I20">
-        <v>1.006287475414783</v>
+        <v>1.003140951042419</v>
       </c>
       <c r="J20">
-        <v>1.000590412167711</v>
+        <v>0.9955058563491976</v>
       </c>
       <c r="K20">
-        <v>0.9901648375924216</v>
+        <v>1.001440951225108</v>
       </c>
       <c r="L20">
-        <v>1.006287475414783</v>
+        <v>1.003140951042419</v>
       </c>
       <c r="M20">
-        <v>1.003438943791247</v>
+        <v>0.9993234036958083</v>
       </c>
       <c r="N20">
-        <v>1.003438943791247</v>
+        <v>0.9993234036958083</v>
       </c>
       <c r="O20">
-        <v>1.002339253508485</v>
+        <v>0.9984137685530236</v>
       </c>
       <c r="P20">
-        <v>0.999014241724972</v>
+        <v>1.000029252872242</v>
       </c>
       <c r="Q20">
-        <v>0.999014241724972</v>
+        <v>1.000029252872242</v>
       </c>
       <c r="R20">
-        <v>0.9968018906918344</v>
+        <v>1.000382177460458</v>
       </c>
       <c r="S20">
-        <v>0.9968018906918344</v>
+        <v>1.000382177460458</v>
       </c>
       <c r="T20">
-        <v>1.000832445455501</v>
+        <v>1.000921354851536</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.000388967361674</v>
+        <v>1.000191924891336</v>
       </c>
       <c r="D21">
-        <v>1.012978432780893</v>
+        <v>1.005865376723887</v>
       </c>
       <c r="E21">
-        <v>0.9945560134745594</v>
+        <v>1.011250653097286</v>
       </c>
       <c r="F21">
-        <v>0.9987874285502695</v>
+        <v>0.9950331295071324</v>
       </c>
       <c r="G21">
-        <v>1.012978432780893</v>
+        <v>1.005865376723887</v>
       </c>
       <c r="H21">
-        <v>0.9961676876835244</v>
+        <v>0.9943422698701625</v>
       </c>
       <c r="I21">
-        <v>0.993039056496929</v>
+        <v>1.003126901506553</v>
       </c>
       <c r="J21">
-        <v>0.9961676876835244</v>
+        <v>0.9943422698701625</v>
       </c>
       <c r="K21">
-        <v>1.012978432780893</v>
+        <v>1.005865376723887</v>
       </c>
       <c r="L21">
-        <v>0.993039056496929</v>
+        <v>1.003126901506553</v>
       </c>
       <c r="M21">
-        <v>0.9946033720902268</v>
+        <v>0.9987345856883577</v>
       </c>
       <c r="N21">
-        <v>0.9946033720902268</v>
+        <v>0.9987345856883577</v>
       </c>
       <c r="O21">
-        <v>0.9959980575769077</v>
+        <v>0.9975007669612825</v>
       </c>
       <c r="P21">
-        <v>1.000728392320449</v>
+        <v>1.001111516033534</v>
       </c>
       <c r="Q21">
-        <v>1.000728392320449</v>
+        <v>1.001111516033534</v>
       </c>
       <c r="R21">
-        <v>1.00379090243556</v>
+        <v>1.002299981206122</v>
       </c>
       <c r="S21">
-        <v>1.00379090243556</v>
+        <v>1.002299981206122</v>
       </c>
       <c r="T21">
-        <v>0.9993195977246416</v>
+        <v>1.001635042599393</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.001200130084859</v>
+        <v>1.000539618287998</v>
       </c>
       <c r="D22">
-        <v>1.001133306655406</v>
+        <v>1.008278905715921</v>
       </c>
       <c r="E22">
-        <v>1.023910964601053</v>
+        <v>1.027171805169818</v>
       </c>
       <c r="F22">
-        <v>0.9877795877359051</v>
+        <v>0.9896947854804907</v>
       </c>
       <c r="G22">
-        <v>1.001133306655406</v>
+        <v>1.008278905715921</v>
       </c>
       <c r="H22">
-        <v>0.9896970702973916</v>
+        <v>0.9878055720177271</v>
       </c>
       <c r="I22">
-        <v>1.019154221390338</v>
+        <v>1.007767192468921</v>
       </c>
       <c r="J22">
-        <v>0.9896970702973916</v>
+        <v>0.9878055720177271</v>
       </c>
       <c r="K22">
-        <v>1.001133306655406</v>
+        <v>1.008278905715921</v>
       </c>
       <c r="L22">
-        <v>1.019154221390338</v>
+        <v>1.007767192468921</v>
       </c>
       <c r="M22">
-        <v>1.004425645843865</v>
+        <v>0.9977863822433239</v>
       </c>
       <c r="N22">
-        <v>1.004425645843865</v>
+        <v>0.9977863822433239</v>
       </c>
       <c r="O22">
-        <v>0.9988769598078782</v>
+        <v>0.9950891833223796</v>
       </c>
       <c r="P22">
-        <v>1.003328199447712</v>
+        <v>1.001283890067523</v>
       </c>
       <c r="Q22">
-        <v>1.003328199447712</v>
+        <v>1.001283890067523</v>
       </c>
       <c r="R22">
-        <v>1.002779476249636</v>
+        <v>1.003032643979622</v>
       </c>
       <c r="S22">
-        <v>1.002779476249636</v>
+        <v>1.003032643979622</v>
       </c>
       <c r="T22">
-        <v>1.003812546794159</v>
+        <v>1.003542979856813</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1.001126026072246</v>
+      </c>
+      <c r="D23">
+        <v>1.024230015163155</v>
+      </c>
+      <c r="E23">
+        <v>1.035081084269251</v>
+      </c>
+      <c r="F23">
+        <v>0.9825253643213263</v>
+      </c>
+      <c r="G23">
+        <v>1.024230015163155</v>
+      </c>
+      <c r="H23">
+        <v>0.978186473377652</v>
+      </c>
+      <c r="I23">
+        <v>1.010849173480775</v>
+      </c>
+      <c r="J23">
+        <v>0.978186473377652</v>
+      </c>
+      <c r="K23">
+        <v>1.024230015163155</v>
+      </c>
+      <c r="L23">
+        <v>1.010849173480775</v>
+      </c>
+      <c r="M23">
+        <v>0.9945178234292137</v>
+      </c>
+      <c r="N23">
+        <v>0.9945178234292137</v>
+      </c>
+      <c r="O23">
+        <v>0.9905203370599178</v>
+      </c>
+      <c r="P23">
+        <v>1.004421887340528</v>
+      </c>
+      <c r="Q23">
+        <v>1.004421887340528</v>
+      </c>
+      <c r="R23">
+        <v>1.009373919296185</v>
+      </c>
+      <c r="S23">
+        <v>1.009373919296185</v>
+      </c>
+      <c r="T23">
+        <v>1.005333022780734</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.02020750372489</v>
+      </c>
+      <c r="D24">
+        <v>0.8981445638736917</v>
+      </c>
+      <c r="E24">
+        <v>0.2657095148697233</v>
+      </c>
+      <c r="F24">
+        <v>1.315611249273824</v>
+      </c>
+      <c r="G24">
+        <v>0.8981445638736917</v>
+      </c>
+      <c r="H24">
+        <v>0.5683255435415164</v>
+      </c>
+      <c r="I24">
+        <v>1.046837031696213</v>
+      </c>
+      <c r="J24">
+        <v>0.5683255435415164</v>
+      </c>
+      <c r="K24">
+        <v>0.8981445638736917</v>
+      </c>
+      <c r="L24">
+        <v>1.046837031696213</v>
+      </c>
+      <c r="M24">
+        <v>0.8075812876188647</v>
+      </c>
+      <c r="N24">
+        <v>0.8075812876188647</v>
+      </c>
+      <c r="O24">
+        <v>0.9769246081705178</v>
+      </c>
+      <c r="P24">
+        <v>0.8377690463704738</v>
+      </c>
+      <c r="Q24">
+        <v>0.8377690463704738</v>
+      </c>
+      <c r="R24">
+        <v>0.8528629257462782</v>
+      </c>
+      <c r="S24">
+        <v>0.8528629257462782</v>
+      </c>
+      <c r="T24">
+        <v>0.8524725678299765</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.8812806094175586</v>
+      </c>
+      <c r="D25">
+        <v>1.202506630195198</v>
+      </c>
+      <c r="E25">
+        <v>1.275007559287129</v>
+      </c>
+      <c r="F25">
+        <v>0.9335685699424507</v>
+      </c>
+      <c r="G25">
+        <v>1.202506630195198</v>
+      </c>
+      <c r="H25">
+        <v>1.921457380605314</v>
+      </c>
+      <c r="I25">
+        <v>0.7314692390896399</v>
+      </c>
+      <c r="J25">
+        <v>1.921457380605314</v>
+      </c>
+      <c r="K25">
+        <v>1.202506630195198</v>
+      </c>
+      <c r="L25">
+        <v>0.7314692390896399</v>
+      </c>
+      <c r="M25">
+        <v>1.326463309847477</v>
+      </c>
+      <c r="N25">
+        <v>1.326463309847477</v>
+      </c>
+      <c r="O25">
+        <v>1.195498396545801</v>
+      </c>
+      <c r="P25">
+        <v>1.285144416630051</v>
+      </c>
+      <c r="Q25">
+        <v>1.285144416630051</v>
+      </c>
+      <c r="R25">
+        <v>1.264484970021337</v>
+      </c>
+      <c r="S25">
+        <v>1.264484970021337</v>
+      </c>
+      <c r="T25">
+        <v>1.157548331422882</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.7321648062775787</v>
+      </c>
+      <c r="D26">
+        <v>1.169577323161082</v>
+      </c>
+      <c r="E26">
+        <v>0.5149492627822729</v>
+      </c>
+      <c r="F26">
+        <v>1.416538810726675</v>
+      </c>
+      <c r="G26">
+        <v>1.169577323161082</v>
+      </c>
+      <c r="H26">
+        <v>2.592203535552606</v>
+      </c>
+      <c r="I26">
+        <v>0.5719322330848896</v>
+      </c>
+      <c r="J26">
+        <v>2.592203535552606</v>
+      </c>
+      <c r="K26">
+        <v>1.169577323161082</v>
+      </c>
+      <c r="L26">
+        <v>0.5719322330848896</v>
+      </c>
+      <c r="M26">
+        <v>1.582067884318748</v>
+      </c>
+      <c r="N26">
+        <v>1.582067884318748</v>
+      </c>
+      <c r="O26">
+        <v>1.526891526454723</v>
+      </c>
+      <c r="P26">
+        <v>1.444571030599526</v>
+      </c>
+      <c r="Q26">
+        <v>1.444571030599526</v>
+      </c>
+      <c r="R26">
+        <v>1.375822603739915</v>
+      </c>
+      <c r="S26">
+        <v>1.375822603739915</v>
+      </c>
+      <c r="T26">
+        <v>1.166227661930851</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9656949855975993</v>
+      </c>
+      <c r="D27">
+        <v>0.460093149710577</v>
+      </c>
+      <c r="E27">
+        <v>0.8599285113765774</v>
+      </c>
+      <c r="F27">
+        <v>1.294555699278245</v>
+      </c>
+      <c r="G27">
+        <v>0.460093149710577</v>
+      </c>
+      <c r="H27">
+        <v>0.3382457532534768</v>
+      </c>
+      <c r="I27">
+        <v>1.137260743501238</v>
+      </c>
+      <c r="J27">
+        <v>0.3382457532534768</v>
+      </c>
+      <c r="K27">
+        <v>0.460093149710577</v>
+      </c>
+      <c r="L27">
+        <v>1.137260743501238</v>
+      </c>
+      <c r="M27">
+        <v>0.7377532483773572</v>
+      </c>
+      <c r="N27">
+        <v>0.7377532483773572</v>
+      </c>
+      <c r="O27">
+        <v>0.9233540653443196</v>
+      </c>
+      <c r="P27">
+        <v>0.6451998821550972</v>
+      </c>
+      <c r="Q27">
+        <v>0.6451998821550972</v>
+      </c>
+      <c r="R27">
+        <v>0.5989231990439671</v>
+      </c>
+      <c r="S27">
+        <v>0.5989231990439671</v>
+      </c>
+      <c r="T27">
+        <v>0.8426298071196188</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.210049861477388</v>
+      </c>
+      <c r="D28">
+        <v>1.600412235653762</v>
+      </c>
+      <c r="E28">
+        <v>1.03739025753116</v>
+      </c>
+      <c r="F28">
+        <v>0.4857635026837779</v>
+      </c>
+      <c r="G28">
+        <v>1.600412235653762</v>
+      </c>
+      <c r="H28">
+        <v>0.2090365231248076</v>
+      </c>
+      <c r="I28">
+        <v>1.057214721478601</v>
+      </c>
+      <c r="J28">
+        <v>0.2090365231248076</v>
+      </c>
+      <c r="K28">
+        <v>1.600412235653762</v>
+      </c>
+      <c r="L28">
+        <v>1.057214721478601</v>
+      </c>
+      <c r="M28">
+        <v>0.6331256223017042</v>
+      </c>
+      <c r="N28">
+        <v>0.6331256223017042</v>
+      </c>
+      <c r="O28">
+        <v>0.5840049157623954</v>
+      </c>
+      <c r="P28">
+        <v>0.955554493419057</v>
+      </c>
+      <c r="Q28">
+        <v>0.955554493419057</v>
+      </c>
+      <c r="R28">
+        <v>1.116768928977733</v>
+      </c>
+      <c r="S28">
+        <v>1.116768928977733</v>
+      </c>
+      <c r="T28">
+        <v>0.9333111836582494</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.156744540744145</v>
+      </c>
+      <c r="D29">
+        <v>1.371890831770204</v>
+      </c>
+      <c r="E29">
+        <v>1.17023619454586</v>
+      </c>
+      <c r="F29">
+        <v>0.6036607130371823</v>
+      </c>
+      <c r="G29">
+        <v>1.371890831770204</v>
+      </c>
+      <c r="H29">
+        <v>0.4072356006185237</v>
+      </c>
+      <c r="I29">
+        <v>1.089145758223907</v>
+      </c>
+      <c r="J29">
+        <v>0.4072356006185237</v>
+      </c>
+      <c r="K29">
+        <v>1.371890831770204</v>
+      </c>
+      <c r="L29">
+        <v>1.089145758223907</v>
+      </c>
+      <c r="M29">
+        <v>0.7481906794212156</v>
+      </c>
+      <c r="N29">
+        <v>0.7481906794212156</v>
+      </c>
+      <c r="O29">
+        <v>0.7000140239598712</v>
+      </c>
+      <c r="P29">
+        <v>0.9560907302042118</v>
+      </c>
+      <c r="Q29">
+        <v>0.9560907302042118</v>
+      </c>
+      <c r="R29">
+        <v>1.06004075559571</v>
+      </c>
+      <c r="S29">
+        <v>1.06004075559571</v>
+      </c>
+      <c r="T29">
+        <v>0.9664856064899703</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.050140256938129</v>
+      </c>
+      <c r="D30">
+        <v>0.9214837168391821</v>
+      </c>
+      <c r="E30">
+        <v>1.429875709636403</v>
+      </c>
+      <c r="F30">
+        <v>0.8393091163303846</v>
+      </c>
+      <c r="G30">
+        <v>0.9214837168391821</v>
+      </c>
+      <c r="H30">
+        <v>0.8028804776469219</v>
+      </c>
+      <c r="I30">
+        <v>1.150355290383108</v>
+      </c>
+      <c r="J30">
+        <v>0.8028804776469219</v>
+      </c>
+      <c r="K30">
+        <v>0.9214837168391821</v>
+      </c>
+      <c r="L30">
+        <v>1.150355290383108</v>
+      </c>
+      <c r="M30">
+        <v>0.976617884015015</v>
+      </c>
+      <c r="N30">
+        <v>0.976617884015015</v>
+      </c>
+      <c r="O30">
+        <v>0.9308482947868049</v>
+      </c>
+      <c r="P30">
+        <v>0.9582398282897374</v>
+      </c>
+      <c r="Q30">
+        <v>0.9582398282897374</v>
+      </c>
+      <c r="R30">
+        <v>0.9490508004270986</v>
+      </c>
+      <c r="S30">
+        <v>0.9490508004270986</v>
+      </c>
+      <c r="T30">
+        <v>1.032340761295688</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>1.048794619980932</v>
+      </c>
+      <c r="D31">
+        <v>0.8556526672171053</v>
+      </c>
+      <c r="E31">
+        <v>1.528989474783742</v>
+      </c>
+      <c r="F31">
+        <v>0.8307592704154194</v>
+      </c>
+      <c r="G31">
+        <v>0.8556526672171053</v>
+      </c>
+      <c r="H31">
+        <v>0.8148761162756484</v>
+      </c>
+      <c r="I31">
+        <v>1.203834576404172</v>
+      </c>
+      <c r="J31">
+        <v>0.8148761162756484</v>
+      </c>
+      <c r="K31">
+        <v>0.8556526672171053</v>
+      </c>
+      <c r="L31">
+        <v>1.203834576404172</v>
+      </c>
+      <c r="M31">
+        <v>1.00935534633991</v>
+      </c>
+      <c r="N31">
+        <v>1.00935534633991</v>
+      </c>
+      <c r="O31">
+        <v>0.9498233210317465</v>
+      </c>
+      <c r="P31">
+        <v>0.9581211199656418</v>
+      </c>
+      <c r="Q31">
+        <v>0.9581211199656418</v>
+      </c>
+      <c r="R31">
+        <v>0.9325040067785076</v>
+      </c>
+      <c r="S31">
+        <v>0.9325040067785076</v>
+      </c>
+      <c r="T31">
+        <v>1.04715112084617</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>1.254240459863014</v>
+      </c>
+      <c r="D32">
+        <v>1.90933615189041</v>
+      </c>
+      <c r="E32">
+        <v>0.8939193396246573</v>
+      </c>
+      <c r="F32">
+        <v>0.3630749374027398</v>
+      </c>
+      <c r="G32">
+        <v>1.90933615189041</v>
+      </c>
+      <c r="H32">
+        <v>0.01023734292709589</v>
+      </c>
+      <c r="I32">
+        <v>1.012181832041096</v>
+      </c>
+      <c r="J32">
+        <v>0.01023734292709589</v>
+      </c>
+      <c r="K32">
+        <v>1.90933615189041</v>
+      </c>
+      <c r="L32">
+        <v>1.012181832041096</v>
+      </c>
+      <c r="M32">
+        <v>0.5112095874840961</v>
+      </c>
+      <c r="N32">
+        <v>0.5112095874840961</v>
+      </c>
+      <c r="O32">
+        <v>0.4618313707903106</v>
+      </c>
+      <c r="P32">
+        <v>0.9772517756195341</v>
+      </c>
+      <c r="Q32">
+        <v>0.9772517756195341</v>
+      </c>
+      <c r="R32">
+        <v>1.210272869687253</v>
+      </c>
+      <c r="S32">
+        <v>1.210272869687253</v>
+      </c>
+      <c r="T32">
+        <v>0.9071650106248356</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>0.8353743952631579</v>
+      </c>
+      <c r="D33">
+        <v>0.8651288141578948</v>
+      </c>
+      <c r="E33">
+        <v>2.887276038878948</v>
+      </c>
+      <c r="F33">
+        <v>0.5482761392263157</v>
+      </c>
+      <c r="G33">
+        <v>0.8651288141578948</v>
+      </c>
+      <c r="H33">
+        <v>1.715063552266842</v>
+      </c>
+      <c r="I33">
+        <v>1.212501807315789</v>
+      </c>
+      <c r="J33">
+        <v>1.715063552266842</v>
+      </c>
+      <c r="K33">
+        <v>0.8651288141578948</v>
+      </c>
+      <c r="L33">
+        <v>1.212501807315789</v>
+      </c>
+      <c r="M33">
+        <v>1.463782679791315</v>
+      </c>
+      <c r="N33">
+        <v>1.463782679791315</v>
+      </c>
+      <c r="O33">
+        <v>1.158613832936316</v>
+      </c>
+      <c r="P33">
+        <v>1.264231391246842</v>
+      </c>
+      <c r="Q33">
+        <v>1.264231391246842</v>
+      </c>
+      <c r="R33">
+        <v>1.164455746974605</v>
+      </c>
+      <c r="S33">
+        <v>1.164455746974605</v>
+      </c>
+      <c r="T33">
+        <v>1.343936791184824</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1.33224547</v>
+      </c>
+      <c r="D34">
+        <v>2.287524117947368</v>
+      </c>
+      <c r="E34">
+        <v>0.7044685326842111</v>
+      </c>
+      <c r="F34">
+        <v>0.2298308385631579</v>
+      </c>
+      <c r="G34">
+        <v>2.287524117947368</v>
+      </c>
+      <c r="H34">
+        <v>0.004519859746315789</v>
+      </c>
+      <c r="I34">
+        <v>1.15753837368421</v>
+      </c>
+      <c r="J34">
+        <v>0.004519859746315789</v>
+      </c>
+      <c r="K34">
+        <v>2.287524117947368</v>
+      </c>
+      <c r="L34">
+        <v>1.15753837368421</v>
+      </c>
+      <c r="M34">
+        <v>0.5810291167152631</v>
+      </c>
+      <c r="N34">
+        <v>0.5810291167152631</v>
+      </c>
+      <c r="O34">
+        <v>0.4639630239978947</v>
+      </c>
+      <c r="P34">
+        <v>1.149860783792631</v>
+      </c>
+      <c r="Q34">
+        <v>1.149860783792631</v>
+      </c>
+      <c r="R34">
+        <v>1.434276617331316</v>
+      </c>
+      <c r="S34">
+        <v>1.434276617331316</v>
+      </c>
+      <c r="T34">
+        <v>0.9526878654375439</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>1.090612191328186</v>
+      </c>
+      <c r="D35">
+        <v>0.4630989185268914</v>
+      </c>
+      <c r="E35">
+        <v>3.039504607040395</v>
+      </c>
+      <c r="F35">
+        <v>0.4247878751883398</v>
+      </c>
+      <c r="G35">
+        <v>0.4630989185268914</v>
+      </c>
+      <c r="H35">
+        <v>0.4052365581066704</v>
+      </c>
+      <c r="I35">
+        <v>1.821019676621215</v>
+      </c>
+      <c r="J35">
+        <v>0.4052365581066704</v>
+      </c>
+      <c r="K35">
+        <v>0.4630989185268914</v>
+      </c>
+      <c r="L35">
+        <v>1.821019676621215</v>
+      </c>
+      <c r="M35">
+        <v>1.113128117363943</v>
+      </c>
+      <c r="N35">
+        <v>1.113128117363943</v>
+      </c>
+      <c r="O35">
+        <v>0.8836813699720752</v>
+      </c>
+      <c r="P35">
+        <v>0.8964517177515924</v>
+      </c>
+      <c r="Q35">
+        <v>0.8964517177515924</v>
+      </c>
+      <c r="R35">
+        <v>0.7881135179454172</v>
+      </c>
+      <c r="S35">
+        <v>0.7881135179454172</v>
+      </c>
+      <c r="T35">
+        <v>1.20737663780195</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0.9998056166547734</v>
+      </c>
+      <c r="D36">
+        <v>0.9901648375924216</v>
+      </c>
+      <c r="E36">
+        <v>1.008006457960355</v>
+      </c>
+      <c r="F36">
+        <v>1.00013987294296</v>
+      </c>
+      <c r="G36">
+        <v>0.9901648375924216</v>
+      </c>
+      <c r="H36">
+        <v>1.000590412167711</v>
+      </c>
+      <c r="I36">
+        <v>1.006287475414783</v>
+      </c>
+      <c r="J36">
+        <v>1.000590412167711</v>
+      </c>
+      <c r="K36">
+        <v>0.9901648375924216</v>
+      </c>
+      <c r="L36">
+        <v>1.006287475414783</v>
+      </c>
+      <c r="M36">
+        <v>1.003438943791247</v>
+      </c>
+      <c r="N36">
+        <v>1.003438943791247</v>
+      </c>
+      <c r="O36">
+        <v>1.002339253508485</v>
+      </c>
+      <c r="P36">
+        <v>0.999014241724972</v>
+      </c>
+      <c r="Q36">
+        <v>0.999014241724972</v>
+      </c>
+      <c r="R36">
+        <v>0.9968018906918344</v>
+      </c>
+      <c r="S36">
+        <v>0.9968018906918344</v>
+      </c>
+      <c r="T36">
+        <v>1.000832445455501</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>1.000388967361674</v>
+      </c>
+      <c r="D37">
+        <v>1.012978432780893</v>
+      </c>
+      <c r="E37">
+        <v>0.9945560134745594</v>
+      </c>
+      <c r="F37">
+        <v>0.9987874285502695</v>
+      </c>
+      <c r="G37">
+        <v>1.012978432780893</v>
+      </c>
+      <c r="H37">
+        <v>0.9961676876835244</v>
+      </c>
+      <c r="I37">
+        <v>0.993039056496929</v>
+      </c>
+      <c r="J37">
+        <v>0.9961676876835244</v>
+      </c>
+      <c r="K37">
+        <v>1.012978432780893</v>
+      </c>
+      <c r="L37">
+        <v>0.993039056496929</v>
+      </c>
+      <c r="M37">
+        <v>0.9946033720902268</v>
+      </c>
+      <c r="N37">
+        <v>0.9946033720902268</v>
+      </c>
+      <c r="O37">
+        <v>0.9959980575769077</v>
+      </c>
+      <c r="P37">
+        <v>1.000728392320449</v>
+      </c>
+      <c r="Q37">
+        <v>1.000728392320449</v>
+      </c>
+      <c r="R37">
+        <v>1.00379090243556</v>
+      </c>
+      <c r="S37">
+        <v>1.00379090243556</v>
+      </c>
+      <c r="T37">
+        <v>0.9993195977246416</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>1.001200130084859</v>
+      </c>
+      <c r="D38">
+        <v>1.001133306655406</v>
+      </c>
+      <c r="E38">
+        <v>1.023910964601053</v>
+      </c>
+      <c r="F38">
+        <v>0.9877795877359051</v>
+      </c>
+      <c r="G38">
+        <v>1.001133306655406</v>
+      </c>
+      <c r="H38">
+        <v>0.9896970702973916</v>
+      </c>
+      <c r="I38">
+        <v>1.019154221390338</v>
+      </c>
+      <c r="J38">
+        <v>0.9896970702973916</v>
+      </c>
+      <c r="K38">
+        <v>1.001133306655406</v>
+      </c>
+      <c r="L38">
+        <v>1.019154221390338</v>
+      </c>
+      <c r="M38">
+        <v>1.004425645843865</v>
+      </c>
+      <c r="N38">
+        <v>1.004425645843865</v>
+      </c>
+      <c r="O38">
+        <v>0.9988769598078782</v>
+      </c>
+      <c r="P38">
+        <v>1.003328199447712</v>
+      </c>
+      <c r="Q38">
+        <v>1.003328199447712</v>
+      </c>
+      <c r="R38">
+        <v>1.002779476249636</v>
+      </c>
+      <c r="S38">
+        <v>1.002779476249636</v>
+      </c>
+      <c r="T38">
+        <v>1.003812546794159</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>1.013722799835608</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>0.9239332489723801</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>1.058359856323744</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>0.976646934511148</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>0.9239332489723801</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>0.969848330419246</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>1.056723192372597</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>0.969848330419246</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>0.9239332489723801</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.056723192372597</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>1.013285761395922</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>1.013285761395922</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>1.001072819100997</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.9835015905880744</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>0.9835015905880744</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.9686095051841508</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9686095051841508</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>0.9998723937391206</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>1.03298710893533</v>
+      </c>
+      <c r="D40">
+        <v>0.9065228325960989</v>
+      </c>
+      <c r="E40">
+        <v>1.588660576922649</v>
+      </c>
+      <c r="F40">
+        <v>0.8305668182482437</v>
+      </c>
+      <c r="G40">
+        <v>0.9065228325960989</v>
+      </c>
+      <c r="H40">
+        <v>0.8272578663455449</v>
+      </c>
+      <c r="I40">
+        <v>1.114784371394718</v>
+      </c>
+      <c r="J40">
+        <v>0.8272578663455449</v>
+      </c>
+      <c r="K40">
+        <v>0.9065228325960989</v>
+      </c>
+      <c r="L40">
+        <v>1.114784371394718</v>
+      </c>
+      <c r="M40">
+        <v>0.9710211188701312</v>
+      </c>
+      <c r="N40">
+        <v>0.9710211188701312</v>
+      </c>
+      <c r="O40">
+        <v>0.9242030186628355</v>
+      </c>
+      <c r="P40">
+        <v>0.9495216901121205</v>
+      </c>
+      <c r="Q40">
+        <v>0.9495216901121205</v>
+      </c>
+      <c r="R40">
+        <v>0.9387719757331151</v>
+      </c>
+      <c r="S40">
+        <v>0.9387719757331151</v>
+      </c>
+      <c r="T40">
+        <v>1.050129929073764</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.9996184049988177</v>
+      </c>
+      <c r="D41">
+        <v>1.025097806322101</v>
+      </c>
+      <c r="E41">
+        <v>0.9260068844353019</v>
+      </c>
+      <c r="F41">
+        <v>1.012338353656522</v>
+      </c>
+      <c r="G41">
+        <v>1.025097806322101</v>
+      </c>
+      <c r="H41">
+        <v>0.9722662576807948</v>
+      </c>
+      <c r="I41">
+        <v>0.9926756602733116</v>
+      </c>
+      <c r="J41">
+        <v>0.9722662576807948</v>
+      </c>
+      <c r="K41">
+        <v>1.025097806322101</v>
+      </c>
+      <c r="L41">
+        <v>0.9926756602733116</v>
+      </c>
+      <c r="M41">
+        <v>0.9824709589770532</v>
+      </c>
+      <c r="N41">
+        <v>0.9824709589770532</v>
+      </c>
+      <c r="O41">
+        <v>0.9924267572035429</v>
+      </c>
+      <c r="P41">
+        <v>0.996679908092069</v>
+      </c>
+      <c r="Q41">
+        <v>0.996679908092069</v>
+      </c>
+      <c r="R41">
+        <v>1.003784382649577</v>
+      </c>
+      <c r="S41">
+        <v>1.003784382649577</v>
+      </c>
+      <c r="T41">
+        <v>0.9880005612278081</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>1.092250757406082</v>
+      </c>
+      <c r="D42">
+        <v>1.196600334974675</v>
+      </c>
+      <c r="E42">
+        <v>1.573557813740407</v>
+      </c>
+      <c r="F42">
+        <v>0.7024204588316578</v>
+      </c>
+      <c r="G42">
+        <v>1.196600334974675</v>
+      </c>
+      <c r="H42">
+        <v>0.5979757005571067</v>
+      </c>
+      <c r="I42">
+        <v>1.007022597489811</v>
+      </c>
+      <c r="J42">
+        <v>0.5979757005571067</v>
+      </c>
+      <c r="K42">
+        <v>1.196600334974675</v>
+      </c>
+      <c r="L42">
+        <v>1.007022597489811</v>
+      </c>
+      <c r="M42">
+        <v>0.802499149023459</v>
+      </c>
+      <c r="N42">
+        <v>0.802499149023459</v>
+      </c>
+      <c r="O42">
+        <v>0.769139585626192</v>
+      </c>
+      <c r="P42">
+        <v>0.9338662110071976</v>
+      </c>
+      <c r="Q42">
+        <v>0.9338662110071976</v>
+      </c>
+      <c r="R42">
+        <v>0.9995497419990669</v>
+      </c>
+      <c r="S42">
+        <v>0.9995497419990669</v>
+      </c>
+      <c r="T42">
+        <v>1.028304610499957</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Alpha4F-HW10.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha4F-HW10.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,43 +85,40 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
     <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
   </si>
   <si>
     <t>[4, 0, 0]</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.034511613642781</v>
+        <v>1.00046237433144</v>
       </c>
       <c r="D3">
-        <v>0.9601794332936798</v>
+        <v>1.001440951225108</v>
       </c>
       <c r="E3">
-        <v>1.002081300727459</v>
+        <v>1.0083834978936</v>
       </c>
       <c r="F3">
-        <v>1.034511613642781</v>
+        <v>0.9965944982674537</v>
       </c>
       <c r="G3">
-        <v>0.9994888363863</v>
+        <v>1.001440951225108</v>
       </c>
       <c r="H3">
-        <v>0.971636974082732</v>
+        <v>0.9955058563491976</v>
       </c>
       <c r="I3">
-        <v>1.011091215900098</v>
+        <v>1.003140951042419</v>
       </c>
       <c r="J3">
-        <v>0.9601794332936798</v>
+        <v>0.9955058563491976</v>
       </c>
       <c r="K3">
-        <v>1.034511613642781</v>
+        <v>1.001440951225108</v>
       </c>
       <c r="L3">
-        <v>1.002081300727459</v>
+        <v>1.003140951042419</v>
       </c>
       <c r="M3">
-        <v>0.9811303670105695</v>
+        <v>0.9993234036958083</v>
       </c>
       <c r="N3">
-        <v>0.9811303670105695</v>
+        <v>0.9993234036958083</v>
       </c>
       <c r="O3">
-        <v>0.9779659027012904</v>
+        <v>0.9984137685530236</v>
       </c>
       <c r="P3">
-        <v>0.9989241158879735</v>
+        <v>1.000029252872242</v>
       </c>
       <c r="Q3">
-        <v>0.9989241158879733</v>
+        <v>1.000029252872242</v>
       </c>
       <c r="R3">
-        <v>1.007820990326675</v>
+        <v>1.000382177460458</v>
       </c>
       <c r="S3">
-        <v>1.007820990326675</v>
+        <v>1.000382177460458</v>
       </c>
       <c r="T3">
-        <v>0.9964982290055083</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+        <v>1.000921354851536</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.068893660203819</v>
+        <v>1.03298710893533</v>
       </c>
       <c r="D4">
-        <v>0.9211221078750735</v>
+        <v>0.9065228325960989</v>
       </c>
       <c r="E4">
-        <v>1.002813121500252</v>
+        <v>1.588660576922649</v>
       </c>
       <c r="F4">
-        <v>1.068893660203819</v>
+        <v>0.8305668182482437</v>
       </c>
       <c r="G4">
-        <v>0.9982108704390896</v>
+        <v>0.9065228325960989</v>
       </c>
       <c r="H4">
-        <v>0.9454377898101602</v>
+        <v>0.8272578663455449</v>
       </c>
       <c r="I4">
-        <v>1.020575385624311</v>
+        <v>1.114784371394718</v>
       </c>
       <c r="J4">
-        <v>0.9211221078750735</v>
+        <v>0.8272578663455449</v>
       </c>
       <c r="K4">
-        <v>1.068893660203819</v>
+        <v>0.9065228325960989</v>
       </c>
       <c r="L4">
-        <v>1.002813121500252</v>
+        <v>1.114784371394718</v>
       </c>
       <c r="M4">
-        <v>0.9619676146876629</v>
+        <v>0.9710211188701312</v>
       </c>
       <c r="N4">
-        <v>0.9619676146876629</v>
+        <v>0.9710211188701312</v>
       </c>
       <c r="O4">
-        <v>0.9564576730618287</v>
+        <v>0.9242030186628355</v>
       </c>
       <c r="P4">
-        <v>0.9976096298597149</v>
+        <v>0.9495216901121205</v>
       </c>
       <c r="Q4">
-        <v>0.9976096298597149</v>
+        <v>0.9495216901121205</v>
       </c>
       <c r="R4">
-        <v>1.015430637445741</v>
+        <v>0.9387719757331151</v>
       </c>
       <c r="S4">
-        <v>1.015430637445741</v>
+        <v>0.9387719757331151</v>
       </c>
       <c r="T4">
-        <v>0.9928421559087844</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>1.050129929073764</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.120671282223248</v>
+        <v>1.061163375208932</v>
       </c>
       <c r="D5">
-        <v>0.8499110597775564</v>
+        <v>0.926808901289628</v>
       </c>
       <c r="E5">
-        <v>1.008479131045831</v>
+        <v>1.49214635807925</v>
       </c>
       <c r="F5">
-        <v>1.120671282223248</v>
+        <v>0.8011758685036735</v>
       </c>
       <c r="G5">
-        <v>1.000065606446719</v>
+        <v>0.926808901289628</v>
       </c>
       <c r="H5">
-        <v>0.8950675305814247</v>
+        <v>0.7562837745640705</v>
       </c>
       <c r="I5">
-        <v>1.036488882272237</v>
+        <v>1.183240973203168</v>
       </c>
       <c r="J5">
-        <v>0.8499110597775564</v>
+        <v>0.7562837745640705</v>
       </c>
       <c r="K5">
-        <v>1.120671282223248</v>
+        <v>0.926808901289628</v>
       </c>
       <c r="L5">
-        <v>1.008479131045831</v>
+        <v>1.183240973203168</v>
       </c>
       <c r="M5">
-        <v>0.9291950954116939</v>
+        <v>0.9697623738836191</v>
       </c>
       <c r="N5">
-        <v>0.9291950954116939</v>
+        <v>0.9697623738836191</v>
       </c>
       <c r="O5">
-        <v>0.9178192404682708</v>
+        <v>0.9135668720903038</v>
       </c>
       <c r="P5">
-        <v>0.9930204910155455</v>
+        <v>0.955444549685622</v>
       </c>
       <c r="Q5">
-        <v>0.9930204910155455</v>
+        <v>0.955444549685622</v>
       </c>
       <c r="R5">
-        <v>1.024933188817471</v>
+        <v>0.9482856375866235</v>
       </c>
       <c r="S5">
-        <v>1.024933188817471</v>
+        <v>0.9482856375866235</v>
       </c>
       <c r="T5">
-        <v>0.9851139153911695</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+        <v>1.036803208474787</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.155766345816073</v>
+        <v>1.090612191328186</v>
       </c>
       <c r="D6">
-        <v>0.8845945138116911</v>
+        <v>0.4630989185268914</v>
       </c>
       <c r="E6">
-        <v>0.9848815205336957</v>
+        <v>3.039504607040395</v>
       </c>
       <c r="F6">
-        <v>1.155766345816073</v>
+        <v>0.4247878751883398</v>
       </c>
       <c r="G6">
-        <v>1.047012367000842</v>
+        <v>0.4630989185268914</v>
       </c>
       <c r="H6">
-        <v>0.7980257483313399</v>
+        <v>0.4052365581066704</v>
       </c>
       <c r="I6">
-        <v>1.058924197648325</v>
+        <v>1.821019676621215</v>
       </c>
       <c r="J6">
-        <v>0.8845945138116911</v>
+        <v>0.4052365581066704</v>
       </c>
       <c r="K6">
-        <v>1.155766345816073</v>
+        <v>0.4630989185268914</v>
       </c>
       <c r="L6">
-        <v>0.9848815205336957</v>
+        <v>1.821019676621215</v>
       </c>
       <c r="M6">
-        <v>0.9347380171726933</v>
+        <v>1.113128117363943</v>
       </c>
       <c r="N6">
-        <v>0.9347380171726933</v>
+        <v>1.113128117363943</v>
       </c>
       <c r="O6">
-        <v>0.8891672608922422</v>
+        <v>0.8836813699720752</v>
       </c>
       <c r="P6">
-        <v>1.008414126720487</v>
+        <v>0.8964517177515924</v>
       </c>
       <c r="Q6">
-        <v>1.008414126720487</v>
+        <v>0.8964517177515924</v>
       </c>
       <c r="R6">
-        <v>1.045252181494383</v>
+        <v>0.7881135179454172</v>
       </c>
       <c r="S6">
-        <v>1.045252181494383</v>
+        <v>0.7881135179454172</v>
       </c>
       <c r="T6">
-        <v>0.9882007821903277</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>1.20737663780195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9999099039813393</v>
+        <v>1.013149190131358</v>
       </c>
       <c r="D7">
-        <v>0.9988412249302874</v>
+        <v>1.043884243563805</v>
       </c>
       <c r="E7">
-        <v>1.001421248751758</v>
+        <v>0.9937644681218285</v>
       </c>
       <c r="F7">
-        <v>0.9999099039813393</v>
+        <v>0.968703055494376</v>
       </c>
       <c r="G7">
-        <v>1.003889581534907</v>
+        <v>1.043884243563805</v>
       </c>
       <c r="H7">
-        <v>0.9986490350679217</v>
+        <v>0.9535551779206815</v>
       </c>
       <c r="I7">
-        <v>1.000121897584107</v>
+        <v>0.9991255035532897</v>
       </c>
       <c r="J7">
-        <v>0.9988412249302874</v>
+        <v>0.9535551779206815</v>
       </c>
       <c r="K7">
-        <v>0.9999099039813393</v>
+        <v>1.043884243563805</v>
       </c>
       <c r="L7">
-        <v>1.001421248751758</v>
+        <v>0.9991255035532897</v>
       </c>
       <c r="M7">
-        <v>1.000131236841022</v>
+        <v>0.9763403407369855</v>
       </c>
       <c r="N7">
-        <v>1.000131236841022</v>
+        <v>0.9763403407369855</v>
       </c>
       <c r="O7">
-        <v>0.9996371695833223</v>
+        <v>0.973794578989449</v>
       </c>
       <c r="P7">
-        <v>1.000057459221128</v>
+        <v>0.9988549750125921</v>
       </c>
       <c r="Q7">
-        <v>1.000057459221128</v>
+        <v>0.9988549750125921</v>
       </c>
       <c r="R7">
-        <v>1.000020570411181</v>
+        <v>1.010112292150395</v>
       </c>
       <c r="S7">
-        <v>1.000020570411181</v>
+        <v>1.010112292150395</v>
       </c>
       <c r="T7">
-        <v>1.00047214864172</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>0.9953636064642231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.001440951225108</v>
+        <v>1.000388967361674</v>
       </c>
       <c r="D8">
-        <v>0.9955058563491982</v>
+        <v>1.012978432780893</v>
       </c>
       <c r="E8">
-        <v>1.003140951042419</v>
+        <v>0.9945560134745594</v>
       </c>
       <c r="F8">
-        <v>1.001440951225108</v>
+        <v>0.9987874285502695</v>
       </c>
       <c r="G8">
-        <v>1.008383497893599</v>
+        <v>1.012978432780893</v>
       </c>
       <c r="H8">
-        <v>0.9965944982674542</v>
+        <v>0.9961676876835244</v>
       </c>
       <c r="I8">
-        <v>1.000462374331439</v>
+        <v>0.993039056496929</v>
       </c>
       <c r="J8">
-        <v>0.9955058563491982</v>
+        <v>0.9961676876835244</v>
       </c>
       <c r="K8">
-        <v>1.001440951225108</v>
+        <v>1.012978432780893</v>
       </c>
       <c r="L8">
-        <v>1.003140951042419</v>
+        <v>0.993039056496929</v>
       </c>
       <c r="M8">
-        <v>0.9993234036958085</v>
+        <v>0.9946033720902268</v>
       </c>
       <c r="N8">
-        <v>0.9993234036958085</v>
+        <v>0.9946033720902268</v>
       </c>
       <c r="O8">
-        <v>0.9984137685530238</v>
+        <v>0.9959980575769077</v>
       </c>
       <c r="P8">
-        <v>1.000029252872242</v>
+        <v>1.000728392320449</v>
       </c>
       <c r="Q8">
-        <v>1.000029252872242</v>
+        <v>1.000728392320449</v>
       </c>
       <c r="R8">
-        <v>1.000382177460458</v>
+        <v>1.00379090243556</v>
       </c>
       <c r="S8">
-        <v>1.000382177460458</v>
+        <v>1.00379090243556</v>
       </c>
       <c r="T8">
-        <v>1.000921354851536</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>0.9993195977246416</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.005865376723887</v>
+        <v>1.020575385624311</v>
       </c>
       <c r="D9">
-        <v>0.9943422698701625</v>
+        <v>1.068893660203819</v>
       </c>
       <c r="E9">
-        <v>1.003126901506553</v>
+        <v>0.9982108704390896</v>
       </c>
       <c r="F9">
-        <v>1.005865376723887</v>
+        <v>0.94543778981016</v>
       </c>
       <c r="G9">
-        <v>1.011250653097286</v>
+        <v>1.068893660203819</v>
       </c>
       <c r="H9">
-        <v>0.9950331295071324</v>
+        <v>0.9211221078750735</v>
       </c>
       <c r="I9">
-        <v>1.000191924891336</v>
+        <v>1.002813121500252</v>
       </c>
       <c r="J9">
-        <v>0.9943422698701625</v>
+        <v>0.9211221078750735</v>
       </c>
       <c r="K9">
-        <v>1.005865376723887</v>
+        <v>1.068893660203819</v>
       </c>
       <c r="L9">
-        <v>1.003126901506553</v>
+        <v>1.002813121500252</v>
       </c>
       <c r="M9">
-        <v>0.9987345856883576</v>
+        <v>0.9619676146876629</v>
       </c>
       <c r="N9">
-        <v>0.9987345856883576</v>
+        <v>0.9619676146876629</v>
       </c>
       <c r="O9">
-        <v>0.9975007669612825</v>
+        <v>0.9564576730618285</v>
       </c>
       <c r="P9">
-        <v>1.001111516033534</v>
+        <v>0.9976096298597149</v>
       </c>
       <c r="Q9">
-        <v>1.001111516033534</v>
+        <v>0.9976096298597149</v>
       </c>
       <c r="R9">
-        <v>1.002299981206122</v>
+        <v>1.015430637445741</v>
       </c>
       <c r="S9">
-        <v>1.002299981206122</v>
+        <v>1.015430637445741</v>
       </c>
       <c r="T9">
-        <v>1.001635042599393</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+        <v>0.9928421559087842</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.008278905715921</v>
+        <v>1.08983644838346</v>
       </c>
       <c r="D10">
-        <v>0.9878055720177271</v>
+        <v>0.4417720922417376</v>
       </c>
       <c r="E10">
-        <v>1.00776719246892</v>
+        <v>3.086508857879968</v>
       </c>
       <c r="F10">
-        <v>1.008278905715921</v>
+        <v>0.4192802005932777</v>
       </c>
       <c r="G10">
-        <v>1.027171805169818</v>
+        <v>0.4417720922417376</v>
       </c>
       <c r="H10">
-        <v>0.9896947854804907</v>
+        <v>0.4067959198536283</v>
       </c>
       <c r="I10">
-        <v>1.000539618287998</v>
+        <v>1.841815732879291</v>
       </c>
       <c r="J10">
-        <v>0.9878055720177271</v>
+        <v>0.4067959198536283</v>
       </c>
       <c r="K10">
-        <v>1.008278905715921</v>
+        <v>0.4417720922417376</v>
       </c>
       <c r="L10">
-        <v>1.00776719246892</v>
+        <v>1.841815732879291</v>
       </c>
       <c r="M10">
-        <v>0.9977863822433237</v>
+        <v>1.12430582636646</v>
       </c>
       <c r="N10">
-        <v>0.9977863822433237</v>
+        <v>1.12430582636646</v>
       </c>
       <c r="O10">
-        <v>0.9950891833223793</v>
+        <v>0.8892972844420656</v>
       </c>
       <c r="P10">
-        <v>1.001283890067523</v>
+        <v>0.8967945816582189</v>
       </c>
       <c r="Q10">
-        <v>1.001283890067523</v>
+        <v>0.8967945816582189</v>
       </c>
       <c r="R10">
-        <v>1.003032643979622</v>
+        <v>0.7830389593040986</v>
       </c>
       <c r="S10">
-        <v>1.003032643979622</v>
+        <v>0.7830389593040986</v>
       </c>
       <c r="T10">
-        <v>1.003542979856812</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+        <v>1.214334875305227</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.024230015163155</v>
+        <v>1.055196502832553</v>
       </c>
       <c r="D11">
-        <v>0.978186473377652</v>
+        <v>0.9613403867109085</v>
       </c>
       <c r="E11">
-        <v>1.010849173480775</v>
+        <v>1.476854169835162</v>
       </c>
       <c r="F11">
-        <v>1.024230015163155</v>
+        <v>0.821844055480718</v>
       </c>
       <c r="G11">
-        <v>1.035081084269251</v>
+        <v>0.9613403867109085</v>
       </c>
       <c r="H11">
-        <v>0.9825253643213263</v>
+        <v>0.7366768957953438</v>
       </c>
       <c r="I11">
-        <v>1.001126026072246</v>
+        <v>1.101050665733235</v>
       </c>
       <c r="J11">
-        <v>0.978186473377652</v>
+        <v>0.7366768957953438</v>
       </c>
       <c r="K11">
-        <v>1.024230015163155</v>
+        <v>0.9613403867109085</v>
       </c>
       <c r="L11">
-        <v>1.010849173480775</v>
+        <v>1.101050665733235</v>
       </c>
       <c r="M11">
-        <v>0.9945178234292137</v>
+        <v>0.9188637807642894</v>
       </c>
       <c r="N11">
-        <v>0.9945178234292137</v>
+        <v>0.9188637807642894</v>
       </c>
       <c r="O11">
-        <v>0.9905203370599178</v>
+        <v>0.8865238723364323</v>
       </c>
       <c r="P11">
-        <v>1.004421887340528</v>
+        <v>0.9330226494131625</v>
       </c>
       <c r="Q11">
-        <v>1.004421887340528</v>
+        <v>0.9330226494131625</v>
       </c>
       <c r="R11">
-        <v>1.009373919296185</v>
+        <v>0.940102083737599</v>
       </c>
       <c r="S11">
-        <v>1.009373919296185</v>
+        <v>0.940102083737599</v>
       </c>
       <c r="T11">
-        <v>1.005333022780734</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+        <v>1.025493779397987</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.8981445638736917</v>
+        <v>1.046346724431578</v>
       </c>
       <c r="D12">
-        <v>0.5683255435415165</v>
+        <v>0.82047370017074</v>
       </c>
       <c r="E12">
-        <v>1.046837031696213</v>
+        <v>1.629534554177686</v>
       </c>
       <c r="F12">
-        <v>0.8981445638736917</v>
+        <v>0.8095912816908404</v>
       </c>
       <c r="G12">
-        <v>0.2657095148697236</v>
+        <v>0.82047370017074</v>
       </c>
       <c r="H12">
-        <v>1.315611249273824</v>
+        <v>0.8241740624780346</v>
       </c>
       <c r="I12">
-        <v>1.02020750372489</v>
+        <v>1.240844969414735</v>
       </c>
       <c r="J12">
-        <v>0.5683255435415165</v>
+        <v>0.8241740624780346</v>
       </c>
       <c r="K12">
-        <v>0.8981445638736917</v>
+        <v>0.82047370017074</v>
       </c>
       <c r="L12">
-        <v>1.046837031696213</v>
+        <v>1.240844969414735</v>
       </c>
       <c r="M12">
-        <v>0.8075812876188646</v>
+        <v>1.032509515946385</v>
       </c>
       <c r="N12">
-        <v>0.8075812876188646</v>
+        <v>1.032509515946385</v>
       </c>
       <c r="O12">
-        <v>0.9769246081705177</v>
+        <v>0.9582034378612031</v>
       </c>
       <c r="P12">
-        <v>0.8377690463704736</v>
+        <v>0.9618309106878363</v>
       </c>
       <c r="Q12">
-        <v>0.8377690463704736</v>
+        <v>0.9618309106878365</v>
       </c>
       <c r="R12">
-        <v>0.8528629257462781</v>
+        <v>0.9264916080585623</v>
       </c>
       <c r="S12">
-        <v>0.8528629257462781</v>
+        <v>0.9264916080585623</v>
       </c>
       <c r="T12">
-        <v>0.8524725678299765</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>1.061827548727269</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.202506630195197</v>
+        <v>0.936780938594227</v>
       </c>
       <c r="D13">
-        <v>1.921457380605314</v>
+        <v>0.985225062134636</v>
       </c>
       <c r="E13">
-        <v>0.7314692390896397</v>
+        <v>0.7975893286660948</v>
       </c>
       <c r="F13">
-        <v>1.202506630195197</v>
+        <v>1.138229152509611</v>
       </c>
       <c r="G13">
-        <v>1.275007559287129</v>
+        <v>0.985225062134636</v>
       </c>
       <c r="H13">
-        <v>0.9335685699424509</v>
+        <v>1.264260896239437</v>
       </c>
       <c r="I13">
-        <v>0.8812806094175586</v>
+        <v>0.9253530803906872</v>
       </c>
       <c r="J13">
-        <v>1.921457380605314</v>
+        <v>1.264260896239437</v>
       </c>
       <c r="K13">
-        <v>1.202506630195197</v>
+        <v>0.985225062134636</v>
       </c>
       <c r="L13">
-        <v>0.7314692390896397</v>
+        <v>0.9253530803906872</v>
       </c>
       <c r="M13">
-        <v>1.326463309847477</v>
+        <v>1.094806988315062</v>
       </c>
       <c r="N13">
-        <v>1.326463309847477</v>
+        <v>1.094806988315062</v>
       </c>
       <c r="O13">
-        <v>1.195498396545801</v>
+        <v>1.109281043046578</v>
       </c>
       <c r="P13">
-        <v>1.28514441663005</v>
+        <v>1.058279679588253</v>
       </c>
       <c r="Q13">
-        <v>1.28514441663005</v>
+        <v>1.058279679588253</v>
       </c>
       <c r="R13">
-        <v>1.264484970021337</v>
+        <v>1.040016025224849</v>
       </c>
       <c r="S13">
-        <v>1.264484970021337</v>
+        <v>1.040016025224849</v>
       </c>
       <c r="T13">
-        <v>1.157548331422882</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+        <v>1.007906409755782</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.169577323161082</v>
+        <v>1.131631499999999</v>
       </c>
       <c r="D14">
-        <v>2.592203535552605</v>
+        <v>0.01857648299999999</v>
       </c>
       <c r="E14">
-        <v>0.5719322330848897</v>
+        <v>4.649256900000006</v>
       </c>
       <c r="F14">
-        <v>1.169577323161082</v>
+        <v>0.005325087999999995</v>
       </c>
       <c r="G14">
-        <v>0.5149492627822733</v>
+        <v>0.01857648299999999</v>
       </c>
       <c r="H14">
-        <v>1.416538810726675</v>
+        <v>0.0006656464199999994</v>
       </c>
       <c r="I14">
-        <v>0.732164806277579</v>
+        <v>2.4914724</v>
       </c>
       <c r="J14">
-        <v>2.592203535552605</v>
+        <v>0.0006656464199999994</v>
       </c>
       <c r="K14">
-        <v>1.169577323161082</v>
+        <v>0.01857648299999999</v>
       </c>
       <c r="L14">
-        <v>0.5719322330848897</v>
+        <v>2.4914724</v>
       </c>
       <c r="M14">
-        <v>1.582067884318747</v>
+        <v>1.24606902321</v>
       </c>
       <c r="N14">
-        <v>1.582067884318747</v>
+        <v>1.24606902321</v>
       </c>
       <c r="O14">
-        <v>1.526891526454723</v>
+        <v>0.8324877114733334</v>
       </c>
       <c r="P14">
-        <v>1.444571030599526</v>
+        <v>0.83690484314</v>
       </c>
       <c r="Q14">
-        <v>1.444571030599526</v>
+        <v>0.83690484314</v>
       </c>
       <c r="R14">
-        <v>1.375822603739915</v>
+        <v>0.632322753105</v>
       </c>
       <c r="S14">
-        <v>1.375822603739915</v>
+        <v>0.632322753105</v>
       </c>
       <c r="T14">
-        <v>1.166227661930851</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+        <v>1.382821336236668</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.460093149710577</v>
+        <v>0.60377661</v>
       </c>
       <c r="D15">
-        <v>0.3382457532534768</v>
+        <v>7.6546011</v>
       </c>
       <c r="E15">
-        <v>1.137260743501238</v>
+        <v>0.0074812554</v>
       </c>
       <c r="F15">
-        <v>0.460093149710577</v>
+        <v>0.05715137000000001</v>
       </c>
       <c r="G15">
-        <v>0.8599285113765774</v>
+        <v>7.6546011</v>
       </c>
       <c r="H15">
-        <v>1.294555699278245</v>
+        <v>0.0006486686500000001</v>
       </c>
       <c r="I15">
-        <v>0.9656949855975993</v>
+        <v>0.026860481</v>
       </c>
       <c r="J15">
-        <v>0.3382457532534768</v>
+        <v>0.0006486686500000001</v>
       </c>
       <c r="K15">
-        <v>0.460093149710577</v>
+        <v>7.6546011</v>
       </c>
       <c r="L15">
-        <v>1.137260743501238</v>
+        <v>0.026860481</v>
       </c>
       <c r="M15">
-        <v>0.7377532483773572</v>
+        <v>0.013754574825</v>
       </c>
       <c r="N15">
-        <v>0.7377532483773572</v>
+        <v>0.013754574825</v>
       </c>
       <c r="O15">
-        <v>0.9233540653443196</v>
+        <v>0.02822017321666667</v>
       </c>
       <c r="P15">
-        <v>0.6451998821550972</v>
+        <v>2.56070341655</v>
       </c>
       <c r="Q15">
-        <v>0.6451998821550972</v>
+        <v>2.56070341655</v>
       </c>
       <c r="R15">
-        <v>0.5989231990439671</v>
+        <v>3.8341778374125</v>
       </c>
       <c r="S15">
-        <v>0.5989231990439671</v>
+        <v>3.8341778374125</v>
       </c>
       <c r="T15">
-        <v>0.8426298071196188</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+        <v>1.391753247508333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9901648375924212</v>
+        <v>0.77467541</v>
       </c>
       <c r="D16">
-        <v>1.000590412167711</v>
+        <v>0.011360374</v>
       </c>
       <c r="E16">
-        <v>1.006287475414783</v>
+        <v>7.3359301</v>
       </c>
       <c r="F16">
-        <v>0.9901648375924212</v>
+        <v>0.002789952</v>
       </c>
       <c r="G16">
-        <v>1.008006457960356</v>
+        <v>0.011360374</v>
       </c>
       <c r="H16">
-        <v>1.00013987294296</v>
+        <v>0.0009295377500000001</v>
       </c>
       <c r="I16">
-        <v>0.9998056166547731</v>
+        <v>1.6665848</v>
       </c>
       <c r="J16">
-        <v>1.000590412167711</v>
+        <v>0.0009295377500000001</v>
       </c>
       <c r="K16">
-        <v>0.9901648375924212</v>
+        <v>0.011360374</v>
       </c>
       <c r="L16">
-        <v>1.006287475414783</v>
+        <v>1.6665848</v>
       </c>
       <c r="M16">
-        <v>1.003438943791247</v>
+        <v>0.833757168875</v>
       </c>
       <c r="N16">
-        <v>1.003438943791247</v>
+        <v>0.833757168875</v>
       </c>
       <c r="O16">
-        <v>1.002339253508485</v>
+        <v>0.5567680965833334</v>
       </c>
       <c r="P16">
-        <v>0.9990142417249719</v>
+        <v>0.5596249039166666</v>
       </c>
       <c r="Q16">
-        <v>0.9990142417249719</v>
+        <v>0.5596249039166666</v>
       </c>
       <c r="R16">
-        <v>0.9968018906918342</v>
+        <v>0.4225587714374999</v>
       </c>
       <c r="S16">
-        <v>0.9968018906918342</v>
+        <v>0.4225587714374999</v>
       </c>
       <c r="T16">
-        <v>1.000832445455501</v>
+        <v>1.632045028958333</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.012978432780892</v>
+        <v>0.88969463</v>
       </c>
       <c r="D17">
-        <v>0.9961676876835244</v>
+        <v>1.1216537</v>
       </c>
       <c r="E17">
-        <v>0.9930390564969289</v>
+        <v>0.20034145</v>
       </c>
       <c r="F17">
-        <v>1.012978432780892</v>
+        <v>1.1202563</v>
       </c>
       <c r="G17">
-        <v>0.9945560134745595</v>
+        <v>1.1216537</v>
       </c>
       <c r="H17">
-        <v>0.9987874285502698</v>
+        <v>1.1076202</v>
       </c>
       <c r="I17">
-        <v>1.000388967361674</v>
+        <v>0.38028418</v>
       </c>
       <c r="J17">
-        <v>0.9961676876835244</v>
+        <v>1.1076202</v>
       </c>
       <c r="K17">
-        <v>1.012978432780892</v>
+        <v>1.1216537</v>
       </c>
       <c r="L17">
-        <v>0.9930390564969289</v>
+        <v>0.38028418</v>
       </c>
       <c r="M17">
-        <v>0.9946033720902266</v>
+        <v>0.74395219</v>
       </c>
       <c r="N17">
-        <v>0.9946033720902266</v>
+        <v>0.74395219</v>
       </c>
       <c r="O17">
-        <v>0.9959980575769077</v>
+        <v>0.8693868933333334</v>
       </c>
       <c r="P17">
-        <v>1.000728392320449</v>
+        <v>0.8698526933333334</v>
       </c>
       <c r="Q17">
-        <v>1.000728392320448</v>
+        <v>0.8698526933333333</v>
       </c>
       <c r="R17">
-        <v>1.00379090243556</v>
+        <v>0.9328029449999999</v>
       </c>
       <c r="S17">
-        <v>1.00379090243556</v>
+        <v>0.9328029449999999</v>
       </c>
       <c r="T17">
-        <v>0.9993195977246415</v>
+        <v>0.80330841</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.001133306655406</v>
+        <v>1.254240459863014</v>
       </c>
       <c r="D18">
-        <v>0.9896970702973916</v>
+        <v>1.90933615189041</v>
       </c>
       <c r="E18">
-        <v>1.019154221390338</v>
+        <v>0.8939193396246573</v>
       </c>
       <c r="F18">
-        <v>1.001133306655406</v>
+        <v>0.3630749374027398</v>
       </c>
       <c r="G18">
-        <v>1.023910964601054</v>
+        <v>1.90933615189041</v>
       </c>
       <c r="H18">
-        <v>0.9877795877359058</v>
+        <v>0.01023734292709589</v>
       </c>
       <c r="I18">
-        <v>1.001200130084859</v>
+        <v>1.012181832041096</v>
       </c>
       <c r="J18">
-        <v>0.9896970702973916</v>
+        <v>0.01023734292709589</v>
       </c>
       <c r="K18">
-        <v>1.001133306655406</v>
+        <v>1.90933615189041</v>
       </c>
       <c r="L18">
-        <v>1.019154221390338</v>
+        <v>1.012181832041096</v>
       </c>
       <c r="M18">
-        <v>1.004425645843865</v>
+        <v>0.5112095874840961</v>
       </c>
       <c r="N18">
-        <v>1.004425645843865</v>
+        <v>0.5112095874840961</v>
       </c>
       <c r="O18">
-        <v>0.9988769598078783</v>
+        <v>0.4618313707903106</v>
       </c>
       <c r="P18">
-        <v>1.003328199447712</v>
+        <v>0.9772517756195341</v>
       </c>
       <c r="Q18">
-        <v>1.003328199447712</v>
+        <v>0.9772517756195341</v>
       </c>
       <c r="R18">
-        <v>1.002779476249635</v>
+        <v>1.210272869687253</v>
       </c>
       <c r="S18">
-        <v>1.002779476249635</v>
+        <v>1.210272869687253</v>
       </c>
       <c r="T18">
-        <v>1.003812546794159</v>
+        <v>0.9071650106248356</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9239332489723801</v>
+        <v>0.8353743952631579</v>
       </c>
       <c r="D19">
-        <v>0.9698483304192462</v>
+        <v>0.8651288141578948</v>
       </c>
       <c r="E19">
-        <v>1.056723192372597</v>
+        <v>2.887276038878948</v>
       </c>
       <c r="F19">
-        <v>0.9239332489723801</v>
+        <v>0.5482761392263157</v>
       </c>
       <c r="G19">
-        <v>1.058359856323744</v>
+        <v>0.8651288141578948</v>
       </c>
       <c r="H19">
-        <v>0.9766469345111478</v>
+        <v>1.715063552266842</v>
       </c>
       <c r="I19">
-        <v>1.013722799835608</v>
+        <v>1.212501807315789</v>
       </c>
       <c r="J19">
-        <v>0.9698483304192462</v>
+        <v>1.715063552266842</v>
       </c>
       <c r="K19">
-        <v>0.9239332489723801</v>
+        <v>0.8651288141578948</v>
       </c>
       <c r="L19">
-        <v>1.056723192372597</v>
+        <v>1.212501807315789</v>
       </c>
       <c r="M19">
-        <v>1.013285761395922</v>
+        <v>1.463782679791315</v>
       </c>
       <c r="N19">
-        <v>1.013285761395922</v>
+        <v>1.463782679791315</v>
       </c>
       <c r="O19">
-        <v>1.001072819100997</v>
+        <v>1.158613832936316</v>
       </c>
       <c r="P19">
-        <v>0.9835015905880744</v>
+        <v>1.264231391246842</v>
       </c>
       <c r="Q19">
-        <v>0.9835015905880745</v>
+        <v>1.264231391246842</v>
       </c>
       <c r="R19">
-        <v>0.9686095051841509</v>
+        <v>1.164455746974605</v>
       </c>
       <c r="S19">
-        <v>0.9686095051841509</v>
+        <v>1.164455746974605</v>
       </c>
       <c r="T19">
-        <v>0.9998723937391206</v>
+        <v>1.343936791184824</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.33224547</v>
+      </c>
+      <c r="D20">
+        <v>2.287524117947368</v>
+      </c>
+      <c r="E20">
+        <v>0.7044685326842111</v>
+      </c>
+      <c r="F20">
+        <v>0.2298308385631579</v>
+      </c>
+      <c r="G20">
+        <v>2.287524117947368</v>
+      </c>
+      <c r="H20">
+        <v>0.004519859746315789</v>
+      </c>
+      <c r="I20">
+        <v>1.15753837368421</v>
+      </c>
+      <c r="J20">
+        <v>0.004519859746315789</v>
+      </c>
+      <c r="K20">
+        <v>2.287524117947368</v>
+      </c>
+      <c r="L20">
+        <v>1.15753837368421</v>
+      </c>
+      <c r="M20">
+        <v>0.5810291167152631</v>
+      </c>
+      <c r="N20">
+        <v>0.5810291167152631</v>
+      </c>
+      <c r="O20">
+        <v>0.4639630239978947</v>
+      </c>
+      <c r="P20">
+        <v>1.149860783792631</v>
+      </c>
+      <c r="Q20">
+        <v>1.149860783792631</v>
+      </c>
+      <c r="R20">
+        <v>1.434276617331316</v>
+      </c>
+      <c r="S20">
+        <v>1.434276617331316</v>
+      </c>
+      <c r="T20">
+        <v>0.9526878654375439</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.7321648062775787</v>
+      </c>
+      <c r="D21">
+        <v>1.169577323161082</v>
+      </c>
+      <c r="E21">
+        <v>0.5149492627822729</v>
+      </c>
+      <c r="F21">
+        <v>1.416538810726675</v>
+      </c>
+      <c r="G21">
+        <v>1.169577323161082</v>
+      </c>
+      <c r="H21">
+        <v>2.592203535552606</v>
+      </c>
+      <c r="I21">
+        <v>0.5719322330848896</v>
+      </c>
+      <c r="J21">
+        <v>2.592203535552606</v>
+      </c>
+      <c r="K21">
+        <v>1.169577323161082</v>
+      </c>
+      <c r="L21">
+        <v>0.5719322330848896</v>
+      </c>
+      <c r="M21">
+        <v>1.582067884318748</v>
+      </c>
+      <c r="N21">
+        <v>1.582067884318748</v>
+      </c>
+      <c r="O21">
+        <v>1.526891526454723</v>
+      </c>
+      <c r="P21">
+        <v>1.444571030599526</v>
+      </c>
+      <c r="Q21">
+        <v>1.444571030599526</v>
+      </c>
+      <c r="R21">
+        <v>1.375822603739915</v>
+      </c>
+      <c r="S21">
+        <v>1.375822603739915</v>
+      </c>
+      <c r="T21">
+        <v>1.166227661930851</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9656949855975993</v>
+      </c>
+      <c r="D22">
+        <v>0.460093149710577</v>
+      </c>
+      <c r="E22">
+        <v>0.8599285113765774</v>
+      </c>
+      <c r="F22">
+        <v>1.294555699278245</v>
+      </c>
+      <c r="G22">
+        <v>0.460093149710577</v>
+      </c>
+      <c r="H22">
+        <v>0.3382457532534768</v>
+      </c>
+      <c r="I22">
+        <v>1.137260743501238</v>
+      </c>
+      <c r="J22">
+        <v>0.3382457532534768</v>
+      </c>
+      <c r="K22">
+        <v>0.460093149710577</v>
+      </c>
+      <c r="L22">
+        <v>1.137260743501238</v>
+      </c>
+      <c r="M22">
+        <v>0.7377532483773572</v>
+      </c>
+      <c r="N22">
+        <v>0.7377532483773572</v>
+      </c>
+      <c r="O22">
+        <v>0.9233540653443196</v>
+      </c>
+      <c r="P22">
+        <v>0.6451998821550972</v>
+      </c>
+      <c r="Q22">
+        <v>0.6451998821550972</v>
+      </c>
+      <c r="R22">
+        <v>0.5989231990439671</v>
+      </c>
+      <c r="S22">
+        <v>0.5989231990439671</v>
+      </c>
+      <c r="T22">
+        <v>0.8426298071196188</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.02020750372489</v>
+      </c>
+      <c r="D23">
+        <v>0.8981445638736917</v>
+      </c>
+      <c r="E23">
+        <v>0.2657095148697233</v>
+      </c>
+      <c r="F23">
+        <v>1.315611249273824</v>
+      </c>
+      <c r="G23">
+        <v>0.8981445638736917</v>
+      </c>
+      <c r="H23">
+        <v>0.5683255435415164</v>
+      </c>
+      <c r="I23">
+        <v>1.046837031696213</v>
+      </c>
+      <c r="J23">
+        <v>0.5683255435415164</v>
+      </c>
+      <c r="K23">
+        <v>0.8981445638736917</v>
+      </c>
+      <c r="L23">
+        <v>1.046837031696213</v>
+      </c>
+      <c r="M23">
+        <v>0.8075812876188647</v>
+      </c>
+      <c r="N23">
+        <v>0.8075812876188647</v>
+      </c>
+      <c r="O23">
+        <v>0.9769246081705178</v>
+      </c>
+      <c r="P23">
+        <v>0.8377690463704738</v>
+      </c>
+      <c r="Q23">
+        <v>0.8377690463704738</v>
+      </c>
+      <c r="R23">
+        <v>0.8528629257462782</v>
+      </c>
+      <c r="S23">
+        <v>0.8528629257462782</v>
+      </c>
+      <c r="T23">
+        <v>0.8524725678299765</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.8812806094175586</v>
+      </c>
+      <c r="D24">
+        <v>1.202506630195198</v>
+      </c>
+      <c r="E24">
+        <v>1.275007559287129</v>
+      </c>
+      <c r="F24">
+        <v>0.9335685699424507</v>
+      </c>
+      <c r="G24">
+        <v>1.202506630195198</v>
+      </c>
+      <c r="H24">
+        <v>1.921457380605314</v>
+      </c>
+      <c r="I24">
+        <v>0.7314692390896399</v>
+      </c>
+      <c r="J24">
+        <v>1.921457380605314</v>
+      </c>
+      <c r="K24">
+        <v>1.202506630195198</v>
+      </c>
+      <c r="L24">
+        <v>0.7314692390896399</v>
+      </c>
+      <c r="M24">
+        <v>1.326463309847477</v>
+      </c>
+      <c r="N24">
+        <v>1.326463309847477</v>
+      </c>
+      <c r="O24">
+        <v>1.195498396545801</v>
+      </c>
+      <c r="P24">
+        <v>1.285144416630051</v>
+      </c>
+      <c r="Q24">
+        <v>1.285144416630051</v>
+      </c>
+      <c r="R24">
+        <v>1.264484970021337</v>
+      </c>
+      <c r="S24">
+        <v>1.264484970021337</v>
+      </c>
+      <c r="T24">
+        <v>1.157548331422882</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.177111145455264</v>
+      </c>
+      <c r="D25">
+        <v>2.616153390142199</v>
+      </c>
+      <c r="E25">
+        <v>0.08586302850703645</v>
+      </c>
+      <c r="F25">
+        <v>0.7422271035265765</v>
+      </c>
+      <c r="G25">
+        <v>2.616153390142199</v>
+      </c>
+      <c r="H25">
+        <v>0.04629163243136166</v>
+      </c>
+      <c r="I25">
+        <v>0.4559862095694832</v>
+      </c>
+      <c r="J25">
+        <v>0.04629163243136166</v>
+      </c>
+      <c r="K25">
+        <v>2.616153390142199</v>
+      </c>
+      <c r="L25">
+        <v>0.4559862095694832</v>
+      </c>
+      <c r="M25">
+        <v>0.2511389210004224</v>
+      </c>
+      <c r="N25">
+        <v>0.2511389210004224</v>
+      </c>
+      <c r="O25">
+        <v>0.4148349818424737</v>
+      </c>
+      <c r="P25">
+        <v>1.039477077381015</v>
+      </c>
+      <c r="Q25">
+        <v>1.039477077381015</v>
+      </c>
+      <c r="R25">
+        <v>1.433646155571311</v>
+      </c>
+      <c r="S25">
+        <v>1.433646155571311</v>
+      </c>
+      <c r="T25">
+        <v>0.8539387516053202</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.088598870972189</v>
+      </c>
+      <c r="D26">
+        <v>0.2429903232181771</v>
+      </c>
+      <c r="E26">
+        <v>1.300021277042945</v>
+      </c>
+      <c r="F26">
+        <v>0.8727961523218064</v>
+      </c>
+      <c r="G26">
+        <v>0.2429903232181771</v>
+      </c>
+      <c r="H26">
+        <v>0.8155531465822222</v>
+      </c>
+      <c r="I26">
+        <v>1.516069186685902</v>
+      </c>
+      <c r="J26">
+        <v>0.8155531465822222</v>
+      </c>
+      <c r="K26">
+        <v>0.2429903232181771</v>
+      </c>
+      <c r="L26">
+        <v>1.516069186685902</v>
+      </c>
+      <c r="M26">
+        <v>1.165811166634062</v>
+      </c>
+      <c r="N26">
+        <v>1.165811166634062</v>
+      </c>
+      <c r="O26">
+        <v>1.068139495196643</v>
+      </c>
+      <c r="P26">
+        <v>0.8582042188287669</v>
+      </c>
+      <c r="Q26">
+        <v>0.858204218828767</v>
+      </c>
+      <c r="R26">
+        <v>0.7044007449261195</v>
+      </c>
+      <c r="S26">
+        <v>0.7044007449261195</v>
+      </c>
+      <c r="T26">
+        <v>0.9726714928038737</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.082242065279776</v>
+      </c>
+      <c r="D27">
+        <v>1.055077156405955</v>
+      </c>
+      <c r="E27">
+        <v>0.7705390119580224</v>
+      </c>
+      <c r="F27">
+        <v>0.8428942579870466</v>
+      </c>
+      <c r="G27">
+        <v>1.055077156405955</v>
+      </c>
+      <c r="H27">
+        <v>0.9492153206777164</v>
+      </c>
+      <c r="I27">
+        <v>1.108066880224475</v>
+      </c>
+      <c r="J27">
+        <v>0.9492153206777164</v>
+      </c>
+      <c r="K27">
+        <v>1.055077156405955</v>
+      </c>
+      <c r="L27">
+        <v>1.108066880224475</v>
+      </c>
+      <c r="M27">
+        <v>1.028641100451096</v>
+      </c>
+      <c r="N27">
+        <v>1.028641100451096</v>
+      </c>
+      <c r="O27">
+        <v>0.9667254862964126</v>
+      </c>
+      <c r="P27">
+        <v>1.037453119102715</v>
+      </c>
+      <c r="Q27">
+        <v>1.037453119102715</v>
+      </c>
+      <c r="R27">
+        <v>1.041859128428525</v>
+      </c>
+      <c r="S27">
+        <v>1.041859128428525</v>
+      </c>
+      <c r="T27">
+        <v>0.9680057820888318</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.106474524473237</v>
+      </c>
+      <c r="D28">
+        <v>1.139999207287643</v>
+      </c>
+      <c r="E28">
+        <v>0.7032933644732988</v>
+      </c>
+      <c r="F28">
+        <v>0.8531053870096647</v>
+      </c>
+      <c r="G28">
+        <v>1.139999207287643</v>
+      </c>
+      <c r="H28">
+        <v>0.9744859379864046</v>
+      </c>
+      <c r="I28">
+        <v>1.138305398455434</v>
+      </c>
+      <c r="J28">
+        <v>0.9744859379864046</v>
+      </c>
+      <c r="K28">
+        <v>1.139999207287643</v>
+      </c>
+      <c r="L28">
+        <v>1.138305398455434</v>
+      </c>
+      <c r="M28">
+        <v>1.056395668220919</v>
+      </c>
+      <c r="N28">
+        <v>1.056395668220919</v>
+      </c>
+      <c r="O28">
+        <v>0.988632241150501</v>
+      </c>
+      <c r="P28">
+        <v>1.084263514576494</v>
+      </c>
+      <c r="Q28">
+        <v>1.084263514576494</v>
+      </c>
+      <c r="R28">
+        <v>1.098197437754281</v>
+      </c>
+      <c r="S28">
+        <v>1.098197437754281</v>
+      </c>
+      <c r="T28">
+        <v>0.9859439699476137</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.7690581576709797</v>
+      </c>
+      <c r="D29">
+        <v>2.062140248001894</v>
+      </c>
+      <c r="E29">
+        <v>0.6377033604489569</v>
+      </c>
+      <c r="F29">
+        <v>1.103009593210363</v>
+      </c>
+      <c r="G29">
+        <v>2.062140248001894</v>
+      </c>
+      <c r="H29">
+        <v>2.083290814104314</v>
+      </c>
+      <c r="I29">
+        <v>0.6514859585610657</v>
+      </c>
+      <c r="J29">
+        <v>2.083290814104314</v>
+      </c>
+      <c r="K29">
+        <v>2.062140248001894</v>
+      </c>
+      <c r="L29">
+        <v>0.6514859585610657</v>
+      </c>
+      <c r="M29">
+        <v>1.36738838633269</v>
+      </c>
+      <c r="N29">
+        <v>1.36738838633269</v>
+      </c>
+      <c r="O29">
+        <v>1.279262121958581</v>
+      </c>
+      <c r="P29">
+        <v>1.598972340222425</v>
+      </c>
+      <c r="Q29">
+        <v>1.598972340222425</v>
+      </c>
+      <c r="R29">
+        <v>1.714764317167292</v>
+      </c>
+      <c r="S29">
+        <v>1.714764317167292</v>
+      </c>
+      <c r="T29">
+        <v>1.217781355332929</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/Alpha4F-HW10.xlsx
+++ b/JupyterNotebooks/AvgHW/Alpha4F-HW10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.03298710893533</v>
+        <v>1.05049211298127</v>
       </c>
       <c r="D4">
-        <v>0.9065228325960989</v>
+        <v>0.8910832627642765</v>
       </c>
       <c r="E4">
-        <v>1.588660576922649</v>
+        <v>1.442126569225874</v>
       </c>
       <c r="F4">
-        <v>0.8305668182482437</v>
+        <v>0.8433516243493203</v>
       </c>
       <c r="G4">
-        <v>0.9065228325960989</v>
+        <v>0.8910832627642765</v>
       </c>
       <c r="H4">
-        <v>0.8272578663455449</v>
+        <v>0.8078462762188927</v>
       </c>
       <c r="I4">
-        <v>1.114784371394718</v>
+        <v>1.157765799863202</v>
       </c>
       <c r="J4">
-        <v>0.8272578663455449</v>
+        <v>0.8078462762188927</v>
       </c>
       <c r="K4">
-        <v>0.9065228325960989</v>
+        <v>0.8910832627642765</v>
       </c>
       <c r="L4">
-        <v>1.114784371394718</v>
+        <v>1.157765799863202</v>
       </c>
       <c r="M4">
-        <v>0.9710211188701312</v>
+        <v>0.9828060380410474</v>
       </c>
       <c r="N4">
-        <v>0.9710211188701312</v>
+        <v>0.9828060380410474</v>
       </c>
       <c r="O4">
-        <v>0.9242030186628355</v>
+        <v>0.9363212334771384</v>
       </c>
       <c r="P4">
-        <v>0.9495216901121205</v>
+        <v>0.952231779615457</v>
       </c>
       <c r="Q4">
-        <v>0.9495216901121205</v>
+        <v>0.9522317796154572</v>
       </c>
       <c r="R4">
-        <v>0.9387719757331151</v>
+        <v>0.9369446504026621</v>
       </c>
       <c r="S4">
-        <v>0.9387719757331151</v>
+        <v>0.9369446504026621</v>
       </c>
       <c r="T4">
-        <v>1.050129929073764</v>
+        <v>1.032110940900473</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.061163375208932</v>
+        <v>1.361980976844551</v>
       </c>
       <c r="D5">
-        <v>0.926808901289628</v>
+        <v>2.334987030732487</v>
       </c>
       <c r="E5">
-        <v>1.49214635807925</v>
+        <v>0.4248095724664603</v>
       </c>
       <c r="F5">
-        <v>0.8011758685036735</v>
+        <v>0.2523059868903106</v>
       </c>
       <c r="G5">
-        <v>0.926808901289628</v>
+        <v>2.334987030732487</v>
       </c>
       <c r="H5">
-        <v>0.7562837745640705</v>
+        <v>0.004985389454532943</v>
       </c>
       <c r="I5">
-        <v>1.183240973203168</v>
+        <v>1.089124445491166</v>
       </c>
       <c r="J5">
-        <v>0.7562837745640705</v>
+        <v>0.004985389454532943</v>
       </c>
       <c r="K5">
-        <v>0.926808901289628</v>
+        <v>2.334987030732487</v>
       </c>
       <c r="L5">
-        <v>1.183240973203168</v>
+        <v>1.089124445491166</v>
       </c>
       <c r="M5">
-        <v>0.9697623738836191</v>
+        <v>0.5470549174728496</v>
       </c>
       <c r="N5">
-        <v>0.9697623738836191</v>
+        <v>0.5470549174728496</v>
       </c>
       <c r="O5">
-        <v>0.9135668720903038</v>
+        <v>0.4488052739453366</v>
       </c>
       <c r="P5">
-        <v>0.955444549685622</v>
+        <v>1.143032288559395</v>
       </c>
       <c r="Q5">
-        <v>0.955444549685622</v>
+        <v>1.143032288559396</v>
       </c>
       <c r="R5">
-        <v>0.9482856375866235</v>
+        <v>1.441020974102668</v>
       </c>
       <c r="S5">
-        <v>0.9482856375866235</v>
+        <v>1.441020974102668</v>
       </c>
       <c r="T5">
-        <v>1.036803208474787</v>
+        <v>0.9113655669799181</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.090612191328186</v>
+        <v>1.03298710893533</v>
       </c>
       <c r="D6">
-        <v>0.4630989185268914</v>
+        <v>0.9065228325960989</v>
       </c>
       <c r="E6">
-        <v>3.039504607040395</v>
+        <v>1.588660576922649</v>
       </c>
       <c r="F6">
-        <v>0.4247878751883398</v>
+        <v>0.8305668182482437</v>
       </c>
       <c r="G6">
-        <v>0.4630989185268914</v>
+        <v>0.9065228325960989</v>
       </c>
       <c r="H6">
-        <v>0.4052365581066704</v>
+        <v>0.8272578663455449</v>
       </c>
       <c r="I6">
-        <v>1.821019676621215</v>
+        <v>1.114784371394718</v>
       </c>
       <c r="J6">
-        <v>0.4052365581066704</v>
+        <v>0.8272578663455449</v>
       </c>
       <c r="K6">
-        <v>0.4630989185268914</v>
+        <v>0.9065228325960989</v>
       </c>
       <c r="L6">
-        <v>1.821019676621215</v>
+        <v>1.114784371394718</v>
       </c>
       <c r="M6">
-        <v>1.113128117363943</v>
+        <v>0.9710211188701312</v>
       </c>
       <c r="N6">
-        <v>1.113128117363943</v>
+        <v>0.9710211188701312</v>
       </c>
       <c r="O6">
-        <v>0.8836813699720752</v>
+        <v>0.9242030186628355</v>
       </c>
       <c r="P6">
-        <v>0.8964517177515924</v>
+        <v>0.9495216901121205</v>
       </c>
       <c r="Q6">
-        <v>0.8964517177515924</v>
+        <v>0.9495216901121205</v>
       </c>
       <c r="R6">
-        <v>0.7881135179454172</v>
+        <v>0.9387719757331151</v>
       </c>
       <c r="S6">
-        <v>0.7881135179454172</v>
+        <v>0.9387719757331151</v>
       </c>
       <c r="T6">
-        <v>1.20737663780195</v>
+        <v>1.050129929073764</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.013149190131358</v>
+        <v>1.061163375208932</v>
       </c>
       <c r="D7">
-        <v>1.043884243563805</v>
+        <v>0.926808901289628</v>
       </c>
       <c r="E7">
-        <v>0.9937644681218285</v>
+        <v>1.49214635807925</v>
       </c>
       <c r="F7">
-        <v>0.968703055494376</v>
+        <v>0.8011758685036735</v>
       </c>
       <c r="G7">
-        <v>1.043884243563805</v>
+        <v>0.926808901289628</v>
       </c>
       <c r="H7">
-        <v>0.9535551779206815</v>
+        <v>0.7562837745640705</v>
       </c>
       <c r="I7">
-        <v>0.9991255035532897</v>
+        <v>1.183240973203168</v>
       </c>
       <c r="J7">
-        <v>0.9535551779206815</v>
+        <v>0.7562837745640705</v>
       </c>
       <c r="K7">
-        <v>1.043884243563805</v>
+        <v>0.926808901289628</v>
       </c>
       <c r="L7">
-        <v>0.9991255035532897</v>
+        <v>1.183240973203168</v>
       </c>
       <c r="M7">
-        <v>0.9763403407369855</v>
+        <v>0.9697623738836191</v>
       </c>
       <c r="N7">
-        <v>0.9763403407369855</v>
+        <v>0.9697623738836191</v>
       </c>
       <c r="O7">
-        <v>0.973794578989449</v>
+        <v>0.9135668720903038</v>
       </c>
       <c r="P7">
-        <v>0.9988549750125921</v>
+        <v>0.955444549685622</v>
       </c>
       <c r="Q7">
-        <v>0.9988549750125921</v>
+        <v>0.955444549685622</v>
       </c>
       <c r="R7">
-        <v>1.010112292150395</v>
+        <v>0.9482856375866235</v>
       </c>
       <c r="S7">
-        <v>1.010112292150395</v>
+        <v>0.9482856375866235</v>
       </c>
       <c r="T7">
-        <v>0.9953636064642231</v>
+        <v>1.036803208474787</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000388967361674</v>
+        <v>1.090612191328186</v>
       </c>
       <c r="D8">
-        <v>1.012978432780893</v>
+        <v>0.4630989185268914</v>
       </c>
       <c r="E8">
-        <v>0.9945560134745594</v>
+        <v>3.039504607040395</v>
       </c>
       <c r="F8">
-        <v>0.9987874285502695</v>
+        <v>0.4247878751883398</v>
       </c>
       <c r="G8">
-        <v>1.012978432780893</v>
+        <v>0.4630989185268914</v>
       </c>
       <c r="H8">
-        <v>0.9961676876835244</v>
+        <v>0.4052365581066704</v>
       </c>
       <c r="I8">
-        <v>0.993039056496929</v>
+        <v>1.821019676621215</v>
       </c>
       <c r="J8">
-        <v>0.9961676876835244</v>
+        <v>0.4052365581066704</v>
       </c>
       <c r="K8">
-        <v>1.012978432780893</v>
+        <v>0.4630989185268914</v>
       </c>
       <c r="L8">
-        <v>0.993039056496929</v>
+        <v>1.821019676621215</v>
       </c>
       <c r="M8">
-        <v>0.9946033720902268</v>
+        <v>1.113128117363943</v>
       </c>
       <c r="N8">
-        <v>0.9946033720902268</v>
+        <v>1.113128117363943</v>
       </c>
       <c r="O8">
-        <v>0.9959980575769077</v>
+        <v>0.8836813699720752</v>
       </c>
       <c r="P8">
-        <v>1.000728392320449</v>
+        <v>0.8964517177515924</v>
       </c>
       <c r="Q8">
-        <v>1.000728392320449</v>
+        <v>0.8964517177515924</v>
       </c>
       <c r="R8">
-        <v>1.00379090243556</v>
+        <v>0.7881135179454172</v>
       </c>
       <c r="S8">
-        <v>1.00379090243556</v>
+        <v>0.7881135179454172</v>
       </c>
       <c r="T8">
-        <v>0.9993195977246416</v>
+        <v>1.20737663780195</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.020575385624311</v>
+        <v>1.013149190131358</v>
       </c>
       <c r="D9">
-        <v>1.068893660203819</v>
+        <v>1.043884243563805</v>
       </c>
       <c r="E9">
-        <v>0.9982108704390896</v>
+        <v>0.9937644681218285</v>
       </c>
       <c r="F9">
-        <v>0.94543778981016</v>
+        <v>0.968703055494376</v>
       </c>
       <c r="G9">
-        <v>1.068893660203819</v>
+        <v>1.043884243563805</v>
       </c>
       <c r="H9">
-        <v>0.9211221078750735</v>
+        <v>0.9535551779206815</v>
       </c>
       <c r="I9">
-        <v>1.002813121500252</v>
+        <v>0.9991255035532897</v>
       </c>
       <c r="J9">
-        <v>0.9211221078750735</v>
+        <v>0.9535551779206815</v>
       </c>
       <c r="K9">
-        <v>1.068893660203819</v>
+        <v>1.043884243563805</v>
       </c>
       <c r="L9">
-        <v>1.002813121500252</v>
+        <v>0.9991255035532897</v>
       </c>
       <c r="M9">
-        <v>0.9619676146876629</v>
+        <v>0.9763403407369855</v>
       </c>
       <c r="N9">
-        <v>0.9619676146876629</v>
+        <v>0.9763403407369855</v>
       </c>
       <c r="O9">
-        <v>0.9564576730618285</v>
+        <v>0.973794578989449</v>
       </c>
       <c r="P9">
-        <v>0.9976096298597149</v>
+        <v>0.9988549750125921</v>
       </c>
       <c r="Q9">
-        <v>0.9976096298597149</v>
+        <v>0.9988549750125921</v>
       </c>
       <c r="R9">
-        <v>1.015430637445741</v>
+        <v>1.010112292150395</v>
       </c>
       <c r="S9">
-        <v>1.015430637445741</v>
+        <v>1.010112292150395</v>
       </c>
       <c r="T9">
-        <v>0.9928421559087842</v>
+        <v>0.9953636064642231</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.08983644838346</v>
+        <v>1.000388967361674</v>
       </c>
       <c r="D10">
-        <v>0.4417720922417376</v>
+        <v>1.012978432780893</v>
       </c>
       <c r="E10">
-        <v>3.086508857879968</v>
+        <v>0.9945560134745594</v>
       </c>
       <c r="F10">
-        <v>0.4192802005932777</v>
+        <v>0.9987874285502695</v>
       </c>
       <c r="G10">
-        <v>0.4417720922417376</v>
+        <v>1.012978432780893</v>
       </c>
       <c r="H10">
-        <v>0.4067959198536283</v>
+        <v>0.9961676876835244</v>
       </c>
       <c r="I10">
-        <v>1.841815732879291</v>
+        <v>0.993039056496929</v>
       </c>
       <c r="J10">
-        <v>0.4067959198536283</v>
+        <v>0.9961676876835244</v>
       </c>
       <c r="K10">
-        <v>0.4417720922417376</v>
+        <v>1.012978432780893</v>
       </c>
       <c r="L10">
-        <v>1.841815732879291</v>
+        <v>0.993039056496929</v>
       </c>
       <c r="M10">
-        <v>1.12430582636646</v>
+        <v>0.9946033720902268</v>
       </c>
       <c r="N10">
-        <v>1.12430582636646</v>
+        <v>0.9946033720902268</v>
       </c>
       <c r="O10">
-        <v>0.8892972844420656</v>
+        <v>0.9959980575769077</v>
       </c>
       <c r="P10">
-        <v>0.8967945816582189</v>
+        <v>1.000728392320449</v>
       </c>
       <c r="Q10">
-        <v>0.8967945816582189</v>
+        <v>1.000728392320449</v>
       </c>
       <c r="R10">
-        <v>0.7830389593040986</v>
+        <v>1.00379090243556</v>
       </c>
       <c r="S10">
-        <v>0.7830389593040986</v>
+        <v>1.00379090243556</v>
       </c>
       <c r="T10">
-        <v>1.214334875305227</v>
+        <v>0.9993195977246416</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.055196502832553</v>
+        <v>1.020575385624311</v>
       </c>
       <c r="D11">
-        <v>0.9613403867109085</v>
+        <v>1.068893660203819</v>
       </c>
       <c r="E11">
-        <v>1.476854169835162</v>
+        <v>0.9982108704390896</v>
       </c>
       <c r="F11">
-        <v>0.821844055480718</v>
+        <v>0.94543778981016</v>
       </c>
       <c r="G11">
-        <v>0.9613403867109085</v>
+        <v>1.068893660203819</v>
       </c>
       <c r="H11">
-        <v>0.7366768957953438</v>
+        <v>0.9211221078750735</v>
       </c>
       <c r="I11">
-        <v>1.101050665733235</v>
+        <v>1.002813121500252</v>
       </c>
       <c r="J11">
-        <v>0.7366768957953438</v>
+        <v>0.9211221078750735</v>
       </c>
       <c r="K11">
-        <v>0.9613403867109085</v>
+        <v>1.068893660203819</v>
       </c>
       <c r="L11">
-        <v>1.101050665733235</v>
+        <v>1.002813121500252</v>
       </c>
       <c r="M11">
-        <v>0.9188637807642894</v>
+        <v>0.9619676146876629</v>
       </c>
       <c r="N11">
-        <v>0.9188637807642894</v>
+        <v>0.9619676146876629</v>
       </c>
       <c r="O11">
-        <v>0.8865238723364323</v>
+        <v>0.9564576730618285</v>
       </c>
       <c r="P11">
-        <v>0.9330226494131625</v>
+        <v>0.9976096298597149</v>
       </c>
       <c r="Q11">
-        <v>0.9330226494131625</v>
+        <v>0.9976096298597149</v>
       </c>
       <c r="R11">
-        <v>0.940102083737599</v>
+        <v>1.015430637445741</v>
       </c>
       <c r="S11">
-        <v>0.940102083737599</v>
+        <v>1.015430637445741</v>
       </c>
       <c r="T11">
-        <v>1.025493779397987</v>
+        <v>0.9928421559087842</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.046346724431578</v>
+        <v>1.08983644838346</v>
       </c>
       <c r="D12">
-        <v>0.82047370017074</v>
+        <v>0.4417720922417376</v>
       </c>
       <c r="E12">
-        <v>1.629534554177686</v>
+        <v>3.086508857879968</v>
       </c>
       <c r="F12">
-        <v>0.8095912816908404</v>
+        <v>0.4192802005932777</v>
       </c>
       <c r="G12">
-        <v>0.82047370017074</v>
+        <v>0.4417720922417376</v>
       </c>
       <c r="H12">
-        <v>0.8241740624780346</v>
+        <v>0.4067959198536283</v>
       </c>
       <c r="I12">
-        <v>1.240844969414735</v>
+        <v>1.841815732879291</v>
       </c>
       <c r="J12">
-        <v>0.8241740624780346</v>
+        <v>0.4067959198536283</v>
       </c>
       <c r="K12">
-        <v>0.82047370017074</v>
+        <v>0.4417720922417376</v>
       </c>
       <c r="L12">
-        <v>1.240844969414735</v>
+        <v>1.841815732879291</v>
       </c>
       <c r="M12">
-        <v>1.032509515946385</v>
+        <v>1.12430582636646</v>
       </c>
       <c r="N12">
-        <v>1.032509515946385</v>
+        <v>1.12430582636646</v>
       </c>
       <c r="O12">
-        <v>0.9582034378612031</v>
+        <v>0.8892972844420656</v>
       </c>
       <c r="P12">
-        <v>0.9618309106878363</v>
+        <v>0.8967945816582189</v>
       </c>
       <c r="Q12">
-        <v>0.9618309106878365</v>
+        <v>0.8967945816582189</v>
       </c>
       <c r="R12">
-        <v>0.9264916080585623</v>
+        <v>0.7830389593040986</v>
       </c>
       <c r="S12">
-        <v>0.9264916080585623</v>
+        <v>0.7830389593040986</v>
       </c>
       <c r="T12">
-        <v>1.061827548727269</v>
+        <v>1.214334875305227</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.936780938594227</v>
+        <v>1.055196502832553</v>
       </c>
       <c r="D13">
-        <v>0.985225062134636</v>
+        <v>0.9613403867109085</v>
       </c>
       <c r="E13">
-        <v>0.7975893286660948</v>
+        <v>1.476854169835162</v>
       </c>
       <c r="F13">
-        <v>1.138229152509611</v>
+        <v>0.821844055480718</v>
       </c>
       <c r="G13">
-        <v>0.985225062134636</v>
+        <v>0.9613403867109085</v>
       </c>
       <c r="H13">
-        <v>1.264260896239437</v>
+        <v>0.7366768957953438</v>
       </c>
       <c r="I13">
-        <v>0.9253530803906872</v>
+        <v>1.101050665733235</v>
       </c>
       <c r="J13">
-        <v>1.264260896239437</v>
+        <v>0.7366768957953438</v>
       </c>
       <c r="K13">
-        <v>0.985225062134636</v>
+        <v>0.9613403867109085</v>
       </c>
       <c r="L13">
-        <v>0.9253530803906872</v>
+        <v>1.101050665733235</v>
       </c>
       <c r="M13">
-        <v>1.094806988315062</v>
+        <v>0.9188637807642894</v>
       </c>
       <c r="N13">
-        <v>1.094806988315062</v>
+        <v>0.9188637807642894</v>
       </c>
       <c r="O13">
-        <v>1.109281043046578</v>
+        <v>0.8865238723364323</v>
       </c>
       <c r="P13">
-        <v>1.058279679588253</v>
+        <v>0.9330226494131625</v>
       </c>
       <c r="Q13">
-        <v>1.058279679588253</v>
+        <v>0.9330226494131625</v>
       </c>
       <c r="R13">
-        <v>1.040016025224849</v>
+        <v>0.940102083737599</v>
       </c>
       <c r="S13">
-        <v>1.040016025224849</v>
+        <v>0.940102083737599</v>
       </c>
       <c r="T13">
-        <v>1.007906409755782</v>
+        <v>1.025493779397987</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.131631499999999</v>
+        <v>1.046346724431578</v>
       </c>
       <c r="D14">
-        <v>0.01857648299999999</v>
+        <v>0.82047370017074</v>
       </c>
       <c r="E14">
-        <v>4.649256900000006</v>
+        <v>1.629534554177686</v>
       </c>
       <c r="F14">
-        <v>0.005325087999999995</v>
+        <v>0.8095912816908404</v>
       </c>
       <c r="G14">
-        <v>0.01857648299999999</v>
+        <v>0.82047370017074</v>
       </c>
       <c r="H14">
-        <v>0.0006656464199999994</v>
+        <v>0.8241740624780346</v>
       </c>
       <c r="I14">
-        <v>2.4914724</v>
+        <v>1.240844969414735</v>
       </c>
       <c r="J14">
-        <v>0.0006656464199999994</v>
+        <v>0.8241740624780346</v>
       </c>
       <c r="K14">
-        <v>0.01857648299999999</v>
+        <v>0.82047370017074</v>
       </c>
       <c r="L14">
-        <v>2.4914724</v>
+        <v>1.240844969414735</v>
       </c>
       <c r="M14">
-        <v>1.24606902321</v>
+        <v>1.032509515946385</v>
       </c>
       <c r="N14">
-        <v>1.24606902321</v>
+        <v>1.032509515946385</v>
       </c>
       <c r="O14">
-        <v>0.8324877114733334</v>
+        <v>0.9582034378612031</v>
       </c>
       <c r="P14">
-        <v>0.83690484314</v>
+        <v>0.9618309106878363</v>
       </c>
       <c r="Q14">
-        <v>0.83690484314</v>
+        <v>0.9618309106878365</v>
       </c>
       <c r="R14">
-        <v>0.632322753105</v>
+        <v>0.9264916080585623</v>
       </c>
       <c r="S14">
-        <v>0.632322753105</v>
+        <v>0.9264916080585623</v>
       </c>
       <c r="T14">
-        <v>1.382821336236668</v>
+        <v>1.061827548727269</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.60377661</v>
+        <v>0.936780938594227</v>
       </c>
       <c r="D15">
-        <v>7.6546011</v>
+        <v>0.985225062134636</v>
       </c>
       <c r="E15">
-        <v>0.0074812554</v>
+        <v>0.7975893286660948</v>
       </c>
       <c r="F15">
-        <v>0.05715137000000001</v>
+        <v>1.138229152509611</v>
       </c>
       <c r="G15">
-        <v>7.6546011</v>
+        <v>0.985225062134636</v>
       </c>
       <c r="H15">
-        <v>0.0006486686500000001</v>
+        <v>1.264260896239437</v>
       </c>
       <c r="I15">
-        <v>0.026860481</v>
+        <v>0.9253530803906872</v>
       </c>
       <c r="J15">
-        <v>0.0006486686500000001</v>
+        <v>1.264260896239437</v>
       </c>
       <c r="K15">
-        <v>7.6546011</v>
+        <v>0.985225062134636</v>
       </c>
       <c r="L15">
-        <v>0.026860481</v>
+        <v>0.9253530803906872</v>
       </c>
       <c r="M15">
-        <v>0.013754574825</v>
+        <v>1.094806988315062</v>
       </c>
       <c r="N15">
-        <v>0.013754574825</v>
+        <v>1.094806988315062</v>
       </c>
       <c r="O15">
-        <v>0.02822017321666667</v>
+        <v>1.109281043046578</v>
       </c>
       <c r="P15">
-        <v>2.56070341655</v>
+        <v>1.058279679588253</v>
       </c>
       <c r="Q15">
-        <v>2.56070341655</v>
+        <v>1.058279679588253</v>
       </c>
       <c r="R15">
-        <v>3.8341778374125</v>
+        <v>1.040016025224849</v>
       </c>
       <c r="S15">
-        <v>3.8341778374125</v>
+        <v>1.040016025224849</v>
       </c>
       <c r="T15">
-        <v>1.391753247508333</v>
+        <v>1.007906409755782</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.77467541</v>
+        <v>1.131631499999999</v>
       </c>
       <c r="D16">
-        <v>0.011360374</v>
+        <v>0.01857648299999999</v>
       </c>
       <c r="E16">
-        <v>7.3359301</v>
+        <v>4.649256900000006</v>
       </c>
       <c r="F16">
-        <v>0.002789952</v>
+        <v>0.005325087999999995</v>
       </c>
       <c r="G16">
-        <v>0.011360374</v>
+        <v>0.01857648299999999</v>
       </c>
       <c r="H16">
-        <v>0.0009295377500000001</v>
+        <v>0.0006656464199999994</v>
       </c>
       <c r="I16">
-        <v>1.6665848</v>
+        <v>2.4914724</v>
       </c>
       <c r="J16">
-        <v>0.0009295377500000001</v>
+        <v>0.0006656464199999994</v>
       </c>
       <c r="K16">
-        <v>0.011360374</v>
+        <v>0.01857648299999999</v>
       </c>
       <c r="L16">
-        <v>1.6665848</v>
+        <v>2.4914724</v>
       </c>
       <c r="M16">
-        <v>0.833757168875</v>
+        <v>1.24606902321</v>
       </c>
       <c r="N16">
-        <v>0.833757168875</v>
+        <v>1.24606902321</v>
       </c>
       <c r="O16">
-        <v>0.5567680965833334</v>
+        <v>0.8324877114733334</v>
       </c>
       <c r="P16">
-        <v>0.5596249039166666</v>
+        <v>0.83690484314</v>
       </c>
       <c r="Q16">
-        <v>0.5596249039166666</v>
+        <v>0.83690484314</v>
       </c>
       <c r="R16">
-        <v>0.4225587714374999</v>
+        <v>0.632322753105</v>
       </c>
       <c r="S16">
-        <v>0.4225587714374999</v>
+        <v>0.632322753105</v>
       </c>
       <c r="T16">
-        <v>1.632045028958333</v>
+        <v>1.382821336236668</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.88969463</v>
+        <v>0.60377661</v>
       </c>
       <c r="D17">
-        <v>1.1216537</v>
+        <v>7.6546011</v>
       </c>
       <c r="E17">
-        <v>0.20034145</v>
+        <v>0.0074812554</v>
       </c>
       <c r="F17">
-        <v>1.1202563</v>
+        <v>0.05715137000000001</v>
       </c>
       <c r="G17">
-        <v>1.1216537</v>
+        <v>7.6546011</v>
       </c>
       <c r="H17">
-        <v>1.1076202</v>
+        <v>0.0006486686500000001</v>
       </c>
       <c r="I17">
-        <v>0.38028418</v>
+        <v>0.026860481</v>
       </c>
       <c r="J17">
-        <v>1.1076202</v>
+        <v>0.0006486686500000001</v>
       </c>
       <c r="K17">
-        <v>1.1216537</v>
+        <v>7.6546011</v>
       </c>
       <c r="L17">
-        <v>0.38028418</v>
+        <v>0.026860481</v>
       </c>
       <c r="M17">
-        <v>0.74395219</v>
+        <v>0.013754574825</v>
       </c>
       <c r="N17">
-        <v>0.74395219</v>
+        <v>0.013754574825</v>
       </c>
       <c r="O17">
-        <v>0.8693868933333334</v>
+        <v>0.02822017321666667</v>
       </c>
       <c r="P17">
-        <v>0.8698526933333334</v>
+        <v>2.56070341655</v>
       </c>
       <c r="Q17">
-        <v>0.8698526933333333</v>
+        <v>2.56070341655</v>
       </c>
       <c r="R17">
-        <v>0.9328029449999999</v>
+        <v>3.8341778374125</v>
       </c>
       <c r="S17">
-        <v>0.9328029449999999</v>
+        <v>3.8341778374125</v>
       </c>
       <c r="T17">
-        <v>0.80330841</v>
+        <v>1.391753247508333</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.254240459863014</v>
+        <v>0.77467541</v>
       </c>
       <c r="D18">
-        <v>1.90933615189041</v>
+        <v>0.011360374</v>
       </c>
       <c r="E18">
-        <v>0.8939193396246573</v>
+        <v>7.3359301</v>
       </c>
       <c r="F18">
-        <v>0.3630749374027398</v>
+        <v>0.002789952</v>
       </c>
       <c r="G18">
-        <v>1.90933615189041</v>
+        <v>0.011360374</v>
       </c>
       <c r="H18">
-        <v>0.01023734292709589</v>
+        <v>0.0009295377500000001</v>
       </c>
       <c r="I18">
-        <v>1.012181832041096</v>
+        <v>1.6665848</v>
       </c>
       <c r="J18">
-        <v>0.01023734292709589</v>
+        <v>0.0009295377500000001</v>
       </c>
       <c r="K18">
-        <v>1.90933615189041</v>
+        <v>0.011360374</v>
       </c>
       <c r="L18">
-        <v>1.012181832041096</v>
+        <v>1.6665848</v>
       </c>
       <c r="M18">
-        <v>0.5112095874840961</v>
+        <v>0.833757168875</v>
       </c>
       <c r="N18">
-        <v>0.5112095874840961</v>
+        <v>0.833757168875</v>
       </c>
       <c r="O18">
-        <v>0.4618313707903106</v>
+        <v>0.5567680965833334</v>
       </c>
       <c r="P18">
-        <v>0.9772517756195341</v>
+        <v>0.5596249039166666</v>
       </c>
       <c r="Q18">
-        <v>0.9772517756195341</v>
+        <v>0.5596249039166666</v>
       </c>
       <c r="R18">
-        <v>1.210272869687253</v>
+        <v>0.4225587714374999</v>
       </c>
       <c r="S18">
-        <v>1.210272869687253</v>
+        <v>0.4225587714374999</v>
       </c>
       <c r="T18">
-        <v>0.9071650106248356</v>
+        <v>1.632045028958333</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.8353743952631579</v>
+        <v>0.88969463</v>
       </c>
       <c r="D19">
-        <v>0.8651288141578948</v>
+        <v>1.1216537</v>
       </c>
       <c r="E19">
-        <v>2.887276038878948</v>
+        <v>0.20034145</v>
       </c>
       <c r="F19">
-        <v>0.5482761392263157</v>
+        <v>1.1202563</v>
       </c>
       <c r="G19">
-        <v>0.8651288141578948</v>
+        <v>1.1216537</v>
       </c>
       <c r="H19">
-        <v>1.715063552266842</v>
+        <v>1.1076202</v>
       </c>
       <c r="I19">
-        <v>1.212501807315789</v>
+        <v>0.38028418</v>
       </c>
       <c r="J19">
-        <v>1.715063552266842</v>
+        <v>1.1076202</v>
       </c>
       <c r="K19">
-        <v>0.8651288141578948</v>
+        <v>1.1216537</v>
       </c>
       <c r="L19">
-        <v>1.212501807315789</v>
+        <v>0.38028418</v>
       </c>
       <c r="M19">
-        <v>1.463782679791315</v>
+        <v>0.74395219</v>
       </c>
       <c r="N19">
-        <v>1.463782679791315</v>
+        <v>0.74395219</v>
       </c>
       <c r="O19">
-        <v>1.158613832936316</v>
+        <v>0.8693868933333334</v>
       </c>
       <c r="P19">
-        <v>1.264231391246842</v>
+        <v>0.8698526933333334</v>
       </c>
       <c r="Q19">
-        <v>1.264231391246842</v>
+        <v>0.8698526933333333</v>
       </c>
       <c r="R19">
-        <v>1.164455746974605</v>
+        <v>0.9328029449999999</v>
       </c>
       <c r="S19">
-        <v>1.164455746974605</v>
+        <v>0.9328029449999999</v>
       </c>
       <c r="T19">
-        <v>1.343936791184824</v>
+        <v>0.80330841</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.33224547</v>
+        <v>1.254240459863014</v>
       </c>
       <c r="D20">
-        <v>2.287524117947368</v>
+        <v>1.90933615189041</v>
       </c>
       <c r="E20">
-        <v>0.7044685326842111</v>
+        <v>0.8939193396246573</v>
       </c>
       <c r="F20">
-        <v>0.2298308385631579</v>
+        <v>0.3630749374027398</v>
       </c>
       <c r="G20">
-        <v>2.287524117947368</v>
+        <v>1.90933615189041</v>
       </c>
       <c r="H20">
-        <v>0.004519859746315789</v>
+        <v>0.01023734292709589</v>
       </c>
       <c r="I20">
-        <v>1.15753837368421</v>
+        <v>1.012181832041096</v>
       </c>
       <c r="J20">
-        <v>0.004519859746315789</v>
+        <v>0.01023734292709589</v>
       </c>
       <c r="K20">
-        <v>2.287524117947368</v>
+        <v>1.90933615189041</v>
       </c>
       <c r="L20">
-        <v>1.15753837368421</v>
+        <v>1.012181832041096</v>
       </c>
       <c r="M20">
-        <v>0.5810291167152631</v>
+        <v>0.5112095874840961</v>
       </c>
       <c r="N20">
-        <v>0.5810291167152631</v>
+        <v>0.5112095874840961</v>
       </c>
       <c r="O20">
-        <v>0.4639630239978947</v>
+        <v>0.4618313707903106</v>
       </c>
       <c r="P20">
-        <v>1.149860783792631</v>
+        <v>0.9772517756195341</v>
       </c>
       <c r="Q20">
-        <v>1.149860783792631</v>
+        <v>0.9772517756195341</v>
       </c>
       <c r="R20">
-        <v>1.434276617331316</v>
+        <v>1.210272869687253</v>
       </c>
       <c r="S20">
-        <v>1.434276617331316</v>
+        <v>1.210272869687253</v>
       </c>
       <c r="T20">
-        <v>0.9526878654375439</v>
+        <v>0.9071650106248356</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.7321648062775787</v>
+        <v>0.8353743952631579</v>
       </c>
       <c r="D21">
-        <v>1.169577323161082</v>
+        <v>0.8651288141578948</v>
       </c>
       <c r="E21">
-        <v>0.5149492627822729</v>
+        <v>2.887276038878948</v>
       </c>
       <c r="F21">
-        <v>1.416538810726675</v>
+        <v>0.5482761392263157</v>
       </c>
       <c r="G21">
-        <v>1.169577323161082</v>
+        <v>0.8651288141578948</v>
       </c>
       <c r="H21">
-        <v>2.592203535552606</v>
+        <v>1.715063552266842</v>
       </c>
       <c r="I21">
-        <v>0.5719322330848896</v>
+        <v>1.212501807315789</v>
       </c>
       <c r="J21">
-        <v>2.592203535552606</v>
+        <v>1.715063552266842</v>
       </c>
       <c r="K21">
-        <v>1.169577323161082</v>
+        <v>0.8651288141578948</v>
       </c>
       <c r="L21">
-        <v>0.5719322330848896</v>
+        <v>1.212501807315789</v>
       </c>
       <c r="M21">
-        <v>1.582067884318748</v>
+        <v>1.463782679791315</v>
       </c>
       <c r="N21">
-        <v>1.582067884318748</v>
+        <v>1.463782679791315</v>
       </c>
       <c r="O21">
-        <v>1.526891526454723</v>
+        <v>1.158613832936316</v>
       </c>
       <c r="P21">
-        <v>1.444571030599526</v>
+        <v>1.264231391246842</v>
       </c>
       <c r="Q21">
-        <v>1.444571030599526</v>
+        <v>1.264231391246842</v>
       </c>
       <c r="R21">
-        <v>1.375822603739915</v>
+        <v>1.164455746974605</v>
       </c>
       <c r="S21">
-        <v>1.375822603739915</v>
+        <v>1.164455746974605</v>
       </c>
       <c r="T21">
-        <v>1.166227661930851</v>
+        <v>1.343936791184824</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9656949855975993</v>
+        <v>1.33224547</v>
       </c>
       <c r="D22">
-        <v>0.460093149710577</v>
+        <v>2.287524117947368</v>
       </c>
       <c r="E22">
-        <v>0.8599285113765774</v>
+        <v>0.7044685326842111</v>
       </c>
       <c r="F22">
-        <v>1.294555699278245</v>
+        <v>0.2298308385631579</v>
       </c>
       <c r="G22">
-        <v>0.460093149710577</v>
+        <v>2.287524117947368</v>
       </c>
       <c r="H22">
-        <v>0.3382457532534768</v>
+        <v>0.004519859746315789</v>
       </c>
       <c r="I22">
-        <v>1.137260743501238</v>
+        <v>1.15753837368421</v>
       </c>
       <c r="J22">
-        <v>0.3382457532534768</v>
+        <v>0.004519859746315789</v>
       </c>
       <c r="K22">
-        <v>0.460093149710577</v>
+        <v>2.287524117947368</v>
       </c>
       <c r="L22">
-        <v>1.137260743501238</v>
+        <v>1.15753837368421</v>
       </c>
       <c r="M22">
-        <v>0.7377532483773572</v>
+        <v>0.5810291167152631</v>
       </c>
       <c r="N22">
-        <v>0.7377532483773572</v>
+        <v>0.5810291167152631</v>
       </c>
       <c r="O22">
-        <v>0.9233540653443196</v>
+        <v>0.4639630239978947</v>
       </c>
       <c r="P22">
-        <v>0.6451998821550972</v>
+        <v>1.149860783792631</v>
       </c>
       <c r="Q22">
-        <v>0.6451998821550972</v>
+        <v>1.149860783792631</v>
       </c>
       <c r="R22">
-        <v>0.5989231990439671</v>
+        <v>1.434276617331316</v>
       </c>
       <c r="S22">
-        <v>0.5989231990439671</v>
+        <v>1.434276617331316</v>
       </c>
       <c r="T22">
-        <v>0.8426298071196188</v>
+        <v>0.9526878654375439</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.02020750372489</v>
+        <v>0.7321648062775787</v>
       </c>
       <c r="D23">
-        <v>0.8981445638736917</v>
+        <v>1.169577323161082</v>
       </c>
       <c r="E23">
-        <v>0.2657095148697233</v>
+        <v>0.5149492627822729</v>
       </c>
       <c r="F23">
-        <v>1.315611249273824</v>
+        <v>1.416538810726675</v>
       </c>
       <c r="G23">
-        <v>0.8981445638736917</v>
+        <v>1.169577323161082</v>
       </c>
       <c r="H23">
-        <v>0.5683255435415164</v>
+        <v>2.592203535552606</v>
       </c>
       <c r="I23">
-        <v>1.046837031696213</v>
+        <v>0.5719322330848896</v>
       </c>
       <c r="J23">
-        <v>0.5683255435415164</v>
+        <v>2.592203535552606</v>
       </c>
       <c r="K23">
-        <v>0.8981445638736917</v>
+        <v>1.169577323161082</v>
       </c>
       <c r="L23">
-        <v>1.046837031696213</v>
+        <v>0.5719322330848896</v>
       </c>
       <c r="M23">
-        <v>0.8075812876188647</v>
+        <v>1.582067884318748</v>
       </c>
       <c r="N23">
-        <v>0.8075812876188647</v>
+        <v>1.582067884318748</v>
       </c>
       <c r="O23">
-        <v>0.9769246081705178</v>
+        <v>1.526891526454723</v>
       </c>
       <c r="P23">
-        <v>0.8377690463704738</v>
+        <v>1.444571030599526</v>
       </c>
       <c r="Q23">
-        <v>0.8377690463704738</v>
+        <v>1.444571030599526</v>
       </c>
       <c r="R23">
-        <v>0.8528629257462782</v>
+        <v>1.375822603739915</v>
       </c>
       <c r="S23">
-        <v>0.8528629257462782</v>
+        <v>1.375822603739915</v>
       </c>
       <c r="T23">
-        <v>0.8524725678299765</v>
+        <v>1.166227661930851</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.8812806094175586</v>
+        <v>0.9656949855975993</v>
       </c>
       <c r="D24">
-        <v>1.202506630195198</v>
+        <v>0.460093149710577</v>
       </c>
       <c r="E24">
-        <v>1.275007559287129</v>
+        <v>0.8599285113765774</v>
       </c>
       <c r="F24">
-        <v>0.9335685699424507</v>
+        <v>1.294555699278245</v>
       </c>
       <c r="G24">
-        <v>1.202506630195198</v>
+        <v>0.460093149710577</v>
       </c>
       <c r="H24">
-        <v>1.921457380605314</v>
+        <v>0.3382457532534768</v>
       </c>
       <c r="I24">
-        <v>0.7314692390896399</v>
+        <v>1.137260743501238</v>
       </c>
       <c r="J24">
-        <v>1.921457380605314</v>
+        <v>0.3382457532534768</v>
       </c>
       <c r="K24">
-        <v>1.202506630195198</v>
+        <v>0.460093149710577</v>
       </c>
       <c r="L24">
-        <v>0.7314692390896399</v>
+        <v>1.137260743501238</v>
       </c>
       <c r="M24">
-        <v>1.326463309847477</v>
+        <v>0.7377532483773572</v>
       </c>
       <c r="N24">
-        <v>1.326463309847477</v>
+        <v>0.7377532483773572</v>
       </c>
       <c r="O24">
-        <v>1.195498396545801</v>
+        <v>0.9233540653443196</v>
       </c>
       <c r="P24">
-        <v>1.285144416630051</v>
+        <v>0.6451998821550972</v>
       </c>
       <c r="Q24">
-        <v>1.285144416630051</v>
+        <v>0.6451998821550972</v>
       </c>
       <c r="R24">
-        <v>1.264484970021337</v>
+        <v>0.5989231990439671</v>
       </c>
       <c r="S24">
-        <v>1.264484970021337</v>
+        <v>0.5989231990439671</v>
       </c>
       <c r="T24">
-        <v>1.157548331422882</v>
+        <v>0.8426298071196188</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.177111145455264</v>
+        <v>1.02020750372489</v>
       </c>
       <c r="D25">
-        <v>2.616153390142199</v>
+        <v>0.8981445638736917</v>
       </c>
       <c r="E25">
-        <v>0.08586302850703645</v>
+        <v>0.2657095148697233</v>
       </c>
       <c r="F25">
-        <v>0.7422271035265765</v>
+        <v>1.315611249273824</v>
       </c>
       <c r="G25">
-        <v>2.616153390142199</v>
+        <v>0.8981445638736917</v>
       </c>
       <c r="H25">
-        <v>0.04629163243136166</v>
+        <v>0.5683255435415164</v>
       </c>
       <c r="I25">
-        <v>0.4559862095694832</v>
+        <v>1.046837031696213</v>
       </c>
       <c r="J25">
-        <v>0.04629163243136166</v>
+        <v>0.5683255435415164</v>
       </c>
       <c r="K25">
-        <v>2.616153390142199</v>
+        <v>0.8981445638736917</v>
       </c>
       <c r="L25">
-        <v>0.4559862095694832</v>
+        <v>1.046837031696213</v>
       </c>
       <c r="M25">
-        <v>0.2511389210004224</v>
+        <v>0.8075812876188647</v>
       </c>
       <c r="N25">
-        <v>0.2511389210004224</v>
+        <v>0.8075812876188647</v>
       </c>
       <c r="O25">
-        <v>0.4148349818424737</v>
+        <v>0.9769246081705178</v>
       </c>
       <c r="P25">
-        <v>1.039477077381015</v>
+        <v>0.8377690463704738</v>
       </c>
       <c r="Q25">
-        <v>1.039477077381015</v>
+        <v>0.8377690463704738</v>
       </c>
       <c r="R25">
-        <v>1.433646155571311</v>
+        <v>0.8528629257462782</v>
       </c>
       <c r="S25">
-        <v>1.433646155571311</v>
+        <v>0.8528629257462782</v>
       </c>
       <c r="T25">
-        <v>0.8539387516053202</v>
+        <v>0.8524725678299765</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>1.088598870972189</v>
+        <v>0.8812806094175586</v>
       </c>
       <c r="D26">
-        <v>0.2429903232181771</v>
+        <v>1.202506630195198</v>
       </c>
       <c r="E26">
-        <v>1.300021277042945</v>
+        <v>1.275007559287129</v>
       </c>
       <c r="F26">
-        <v>0.8727961523218064</v>
+        <v>0.9335685699424507</v>
       </c>
       <c r="G26">
-        <v>0.2429903232181771</v>
+        <v>1.202506630195198</v>
       </c>
       <c r="H26">
-        <v>0.8155531465822222</v>
+        <v>1.921457380605314</v>
       </c>
       <c r="I26">
-        <v>1.516069186685902</v>
+        <v>0.7314692390896399</v>
       </c>
       <c r="J26">
-        <v>0.8155531465822222</v>
+        <v>1.921457380605314</v>
       </c>
       <c r="K26">
-        <v>0.2429903232181771</v>
+        <v>1.202506630195198</v>
       </c>
       <c r="L26">
-        <v>1.516069186685902</v>
+        <v>0.7314692390896399</v>
       </c>
       <c r="M26">
-        <v>1.165811166634062</v>
+        <v>1.326463309847477</v>
       </c>
       <c r="N26">
-        <v>1.165811166634062</v>
+        <v>1.326463309847477</v>
       </c>
       <c r="O26">
-        <v>1.068139495196643</v>
+        <v>1.195498396545801</v>
       </c>
       <c r="P26">
-        <v>0.8582042188287669</v>
+        <v>1.285144416630051</v>
       </c>
       <c r="Q26">
-        <v>0.858204218828767</v>
+        <v>1.285144416630051</v>
       </c>
       <c r="R26">
-        <v>0.7044007449261195</v>
+        <v>1.264484970021337</v>
       </c>
       <c r="S26">
-        <v>0.7044007449261195</v>
+        <v>1.264484970021337</v>
       </c>
       <c r="T26">
-        <v>0.9726714928038737</v>
+        <v>1.157548331422882</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>1.082242065279776</v>
+        <v>1.177111145455264</v>
       </c>
       <c r="D27">
-        <v>1.055077156405955</v>
+        <v>2.616153390142199</v>
       </c>
       <c r="E27">
-        <v>0.7705390119580224</v>
+        <v>0.08586302850703645</v>
       </c>
       <c r="F27">
-        <v>0.8428942579870466</v>
+        <v>0.7422271035265765</v>
       </c>
       <c r="G27">
-        <v>1.055077156405955</v>
+        <v>2.616153390142199</v>
       </c>
       <c r="H27">
-        <v>0.9492153206777164</v>
+        <v>0.04629163243136166</v>
       </c>
       <c r="I27">
-        <v>1.108066880224475</v>
+        <v>0.4559862095694832</v>
       </c>
       <c r="J27">
-        <v>0.9492153206777164</v>
+        <v>0.04629163243136166</v>
       </c>
       <c r="K27">
-        <v>1.055077156405955</v>
+        <v>2.616153390142199</v>
       </c>
       <c r="L27">
-        <v>1.108066880224475</v>
+        <v>0.4559862095694832</v>
       </c>
       <c r="M27">
-        <v>1.028641100451096</v>
+        <v>0.2511389210004224</v>
       </c>
       <c r="N27">
-        <v>1.028641100451096</v>
+        <v>0.2511389210004224</v>
       </c>
       <c r="O27">
-        <v>0.9667254862964126</v>
+        <v>0.4148349818424737</v>
       </c>
       <c r="P27">
-        <v>1.037453119102715</v>
+        <v>1.039477077381015</v>
       </c>
       <c r="Q27">
-        <v>1.037453119102715</v>
+        <v>1.039477077381015</v>
       </c>
       <c r="R27">
-        <v>1.041859128428525</v>
+        <v>1.433646155571311</v>
       </c>
       <c r="S27">
-        <v>1.041859128428525</v>
+        <v>1.433646155571311</v>
       </c>
       <c r="T27">
-        <v>0.9680057820888318</v>
+        <v>0.8539387516053202</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>1.106474524473237</v>
+        <v>1.088598870972189</v>
       </c>
       <c r="D28">
-        <v>1.139999207287643</v>
+        <v>0.2429903232181771</v>
       </c>
       <c r="E28">
-        <v>0.7032933644732988</v>
+        <v>1.300021277042945</v>
       </c>
       <c r="F28">
-        <v>0.8531053870096647</v>
+        <v>0.8727961523218064</v>
       </c>
       <c r="G28">
-        <v>1.139999207287643</v>
+        <v>0.2429903232181771</v>
       </c>
       <c r="H28">
-        <v>0.9744859379864046</v>
+        <v>0.8155531465822222</v>
       </c>
       <c r="I28">
-        <v>1.138305398455434</v>
+        <v>1.516069186685902</v>
       </c>
       <c r="J28">
-        <v>0.9744859379864046</v>
+        <v>0.8155531465822222</v>
       </c>
       <c r="K28">
-        <v>1.139999207287643</v>
+        <v>0.2429903232181771</v>
       </c>
       <c r="L28">
-        <v>1.138305398455434</v>
+        <v>1.516069186685902</v>
       </c>
       <c r="M28">
-        <v>1.056395668220919</v>
+        <v>1.165811166634062</v>
       </c>
       <c r="N28">
-        <v>1.056395668220919</v>
+        <v>1.165811166634062</v>
       </c>
       <c r="O28">
-        <v>0.988632241150501</v>
+        <v>1.068139495196643</v>
       </c>
       <c r="P28">
-        <v>1.084263514576494</v>
+        <v>0.8582042188287669</v>
       </c>
       <c r="Q28">
-        <v>1.084263514576494</v>
+        <v>0.858204218828767</v>
       </c>
       <c r="R28">
-        <v>1.098197437754281</v>
+        <v>0.7044007449261195</v>
       </c>
       <c r="S28">
-        <v>1.098197437754281</v>
+        <v>0.7044007449261195</v>
       </c>
       <c r="T28">
-        <v>0.9859439699476137</v>
+        <v>0.9726714928038737</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>1.082242065279776</v>
+      </c>
+      <c r="D29">
+        <v>1.055077156405955</v>
+      </c>
+      <c r="E29">
+        <v>0.7705390119580224</v>
+      </c>
+      <c r="F29">
+        <v>0.8428942579870466</v>
+      </c>
+      <c r="G29">
+        <v>1.055077156405955</v>
+      </c>
+      <c r="H29">
+        <v>0.9492153206777164</v>
+      </c>
+      <c r="I29">
+        <v>1.108066880224475</v>
+      </c>
+      <c r="J29">
+        <v>0.9492153206777164</v>
+      </c>
+      <c r="K29">
+        <v>1.055077156405955</v>
+      </c>
+      <c r="L29">
+        <v>1.108066880224475</v>
+      </c>
+      <c r="M29">
+        <v>1.028641100451096</v>
+      </c>
+      <c r="N29">
+        <v>1.028641100451096</v>
+      </c>
+      <c r="O29">
+        <v>0.9667254862964126</v>
+      </c>
+      <c r="P29">
+        <v>1.037453119102715</v>
+      </c>
+      <c r="Q29">
+        <v>1.037453119102715</v>
+      </c>
+      <c r="R29">
+        <v>1.041859128428525</v>
+      </c>
+      <c r="S29">
+        <v>1.041859128428525</v>
+      </c>
+      <c r="T29">
+        <v>0.9680057820888318</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.106474524473237</v>
+      </c>
+      <c r="D30">
+        <v>1.139999207287643</v>
+      </c>
+      <c r="E30">
+        <v>0.7032933644732988</v>
+      </c>
+      <c r="F30">
+        <v>0.8531053870096647</v>
+      </c>
+      <c r="G30">
+        <v>1.139999207287643</v>
+      </c>
+      <c r="H30">
+        <v>0.9744859379864046</v>
+      </c>
+      <c r="I30">
+        <v>1.138305398455434</v>
+      </c>
+      <c r="J30">
+        <v>0.9744859379864046</v>
+      </c>
+      <c r="K30">
+        <v>1.139999207287643</v>
+      </c>
+      <c r="L30">
+        <v>1.138305398455434</v>
+      </c>
+      <c r="M30">
+        <v>1.056395668220919</v>
+      </c>
+      <c r="N30">
+        <v>1.056395668220919</v>
+      </c>
+      <c r="O30">
+        <v>0.988632241150501</v>
+      </c>
+      <c r="P30">
+        <v>1.084263514576494</v>
+      </c>
+      <c r="Q30">
+        <v>1.084263514576494</v>
+      </c>
+      <c r="R30">
+        <v>1.098197437754281</v>
+      </c>
+      <c r="S30">
+        <v>1.098197437754281</v>
+      </c>
+      <c r="T30">
+        <v>0.9859439699476137</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>0.7690581576709797</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>2.062140248001894</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.6377033604489569</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>1.103009593210363</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>2.062140248001894</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>2.083290814104314</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>0.6514859585610657</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>2.083290814104314</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>2.062140248001894</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.6514859585610657</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>1.36738838633269</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>1.36738838633269</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>1.279262121958581</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.598972340222425</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>1.598972340222425</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.714764317167292</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.714764317167292</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>1.217781355332929</v>
       </c>
     </row>
